--- a/NOMIS/Dictionary NOMIS Data 2011 Census.xlsx
+++ b/NOMIS/Dictionary NOMIS Data 2011 Census.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgiospapadopoulos/Desktop/Statistics Personal Notes/COVID/datasets-sample/NOMIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/W574560/Desktop/datasets/NOMIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595F40BD-E445-7949-8CD5-B4BFA694B75F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BC3F9-C018-D04E-B719-ED58068A5AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A3BBF758-14AF-244D-8C9E-2FF243273783}"/>
+    <workbookView xWindow="-160" yWindow="1860" windowWidth="28600" windowHeight="17440" xr2:uid="{A3BBF758-14AF-244D-8C9E-2FF243273783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="519">
   <si>
     <t>Local Authority District</t>
   </si>
@@ -807,6 +807,789 @@
   </si>
   <si>
     <t>Distance travelled to work</t>
+  </si>
+  <si>
+    <t>ABDE.gva</t>
+  </si>
+  <si>
+    <t>C.gva</t>
+  </si>
+  <si>
+    <t>F.gva</t>
+  </si>
+  <si>
+    <t>G.gva</t>
+  </si>
+  <si>
+    <t>H.gva</t>
+  </si>
+  <si>
+    <t>I.gva</t>
+  </si>
+  <si>
+    <t>J.gva</t>
+  </si>
+  <si>
+    <t>K.gva</t>
+  </si>
+  <si>
+    <t>L.gva</t>
+  </si>
+  <si>
+    <t>M.gva</t>
+  </si>
+  <si>
+    <t>N.gva</t>
+  </si>
+  <si>
+    <t>O.gva</t>
+  </si>
+  <si>
+    <t>P.gva</t>
+  </si>
+  <si>
+    <t>Q.gva</t>
+  </si>
+  <si>
+    <t>R.gva</t>
+  </si>
+  <si>
+    <t>S.gva</t>
+  </si>
+  <si>
+    <t>T.gva</t>
+  </si>
+  <si>
+    <t>1998.avHS</t>
+  </si>
+  <si>
+    <t>1999.avHS</t>
+  </si>
+  <si>
+    <t>2000.avHS</t>
+  </si>
+  <si>
+    <t>2001.avHS</t>
+  </si>
+  <si>
+    <t>2002.avHS</t>
+  </si>
+  <si>
+    <t>2003.avHS</t>
+  </si>
+  <si>
+    <t>2004.avHS</t>
+  </si>
+  <si>
+    <t>2005.avHS</t>
+  </si>
+  <si>
+    <t>2006.avHS</t>
+  </si>
+  <si>
+    <t>2007.avHS</t>
+  </si>
+  <si>
+    <t>2008.avHS</t>
+  </si>
+  <si>
+    <t>2009.avHS</t>
+  </si>
+  <si>
+    <t>2010.avHS</t>
+  </si>
+  <si>
+    <t>2011.avHS</t>
+  </si>
+  <si>
+    <t>2012.avHS</t>
+  </si>
+  <si>
+    <t>2013.avHS</t>
+  </si>
+  <si>
+    <t>2014.avHS</t>
+  </si>
+  <si>
+    <t>2015.avHS</t>
+  </si>
+  <si>
+    <t>2016.avHS</t>
+  </si>
+  <si>
+    <t>2017.avHS</t>
+  </si>
+  <si>
+    <t>2018.avHS</t>
+  </si>
+  <si>
+    <t>1998.HSvol</t>
+  </si>
+  <si>
+    <t>1999.HSvol</t>
+  </si>
+  <si>
+    <t>2000.HSvol</t>
+  </si>
+  <si>
+    <t>2001.HSvol</t>
+  </si>
+  <si>
+    <t>2002.HSvol</t>
+  </si>
+  <si>
+    <t>2003.HSvol</t>
+  </si>
+  <si>
+    <t>2004.HSvol</t>
+  </si>
+  <si>
+    <t>2005.HSvol</t>
+  </si>
+  <si>
+    <t>2006.HSvol</t>
+  </si>
+  <si>
+    <t>2007.HSvol</t>
+  </si>
+  <si>
+    <t>2008.HSvol</t>
+  </si>
+  <si>
+    <t>2009.HSvol</t>
+  </si>
+  <si>
+    <t>2010.HSvol</t>
+  </si>
+  <si>
+    <t>2011.HSvol</t>
+  </si>
+  <si>
+    <t>2012.HSvol</t>
+  </si>
+  <si>
+    <t>2013.HSvol</t>
+  </si>
+  <si>
+    <t>2014.HSvol</t>
+  </si>
+  <si>
+    <t>2015.HSvol</t>
+  </si>
+  <si>
+    <t>2016.HSvol</t>
+  </si>
+  <si>
+    <t>2017.HSvol</t>
+  </si>
+  <si>
+    <t>2018.HSvol</t>
+  </si>
+  <si>
+    <t>Food &amp; non-alcoholic drinks</t>
+  </si>
+  <si>
+    <t>Alcoholic drink, tobacco &amp; narcotics</t>
+  </si>
+  <si>
+    <t>Clothing &amp; footwear</t>
+  </si>
+  <si>
+    <t>Housing (net), fuel &amp; power</t>
+  </si>
+  <si>
+    <t>Household goods &amp; services</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Recreation &amp; culture</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Restaurants &amp; hotels</t>
+  </si>
+  <si>
+    <t>Miscellaneous goods &amp; services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total expenditure </t>
+  </si>
+  <si>
+    <t>Retainable Income</t>
+  </si>
+  <si>
+    <t>18-24.insolv</t>
+  </si>
+  <si>
+    <t>25-34.insolv</t>
+  </si>
+  <si>
+    <t>35-44.insolv</t>
+  </si>
+  <si>
+    <t>45-54.insolv</t>
+  </si>
+  <si>
+    <t>55-64.insolv</t>
+  </si>
+  <si>
+    <t>65.insolv</t>
+  </si>
+  <si>
+    <t>Unknown.insolv</t>
+  </si>
+  <si>
+    <t>Total.insolv</t>
+  </si>
+  <si>
+    <t>UK Cases</t>
+  </si>
+  <si>
+    <t>Admission episodes for alcohol-related conditions (Narrow)</t>
+  </si>
+  <si>
+    <t>Average Attainment 8 score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer diagnosed at early stage </t>
+  </si>
+  <si>
+    <t>Children in low income families (under 16s)</t>
+  </si>
+  <si>
+    <t>Emergency Hospital Admissions for Intentional Self-Harm</t>
+  </si>
+  <si>
+    <t>Estimated dementia diagnosis rate (aged 65 and over)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excess winter deaths </t>
+  </si>
+  <si>
+    <t>Infant mortality rate</t>
+  </si>
+  <si>
+    <t>Killed and seriously injured (KSI) casualties on England's roads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New STI diagnoses </t>
+  </si>
+  <si>
+    <t>Percentage of adults (aged 18+) classified as overweight or obese</t>
+  </si>
+  <si>
+    <t>Percentage of physically active adults</t>
+  </si>
+  <si>
+    <t>Smoking Prevalence in adults (18+) - current smokers (APS)</t>
+  </si>
+  <si>
+    <t>Statutory homelessness</t>
+  </si>
+  <si>
+    <t>Suicide rate</t>
+  </si>
+  <si>
+    <t>TB incidence (three year average)</t>
+  </si>
+  <si>
+    <t>Violent crime - hospital admissions for violence</t>
+  </si>
+  <si>
+    <t>A.number</t>
+  </si>
+  <si>
+    <t>BCDE.number</t>
+  </si>
+  <si>
+    <t>F.number</t>
+  </si>
+  <si>
+    <t>G.number</t>
+  </si>
+  <si>
+    <t>H.number</t>
+  </si>
+  <si>
+    <t>I.number</t>
+  </si>
+  <si>
+    <t>J.number</t>
+  </si>
+  <si>
+    <t>K.number</t>
+  </si>
+  <si>
+    <t>L.number</t>
+  </si>
+  <si>
+    <t>M.number</t>
+  </si>
+  <si>
+    <t>N.number</t>
+  </si>
+  <si>
+    <t>O.number</t>
+  </si>
+  <si>
+    <t>P.number</t>
+  </si>
+  <si>
+    <t>Q.number</t>
+  </si>
+  <si>
+    <t>RSTU.number</t>
+  </si>
+  <si>
+    <t>Micro 0-4</t>
+  </si>
+  <si>
+    <t>Small 5-49</t>
+  </si>
+  <si>
+    <t>Medium 50-249</t>
+  </si>
+  <si>
+    <t>Large 250+</t>
+  </si>
+  <si>
+    <t>Small 0-99th</t>
+  </si>
+  <si>
+    <t>Medium 100-999th</t>
+  </si>
+  <si>
+    <t>Large 1000-49999th</t>
+  </si>
+  <si>
+    <t>Very Large 50000th+</t>
+  </si>
+  <si>
+    <t>Regional gross domestic product local authorities</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/economy/grossdomesticproductgdp/datasets/regionalgrossdomesticproductlocalauthorities</t>
+  </si>
+  <si>
+    <t>Regional Gross Domestic Product ONS</t>
+  </si>
+  <si>
+    <t>Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>UK House Price Index ONS</t>
+  </si>
+  <si>
+    <t>Average House Sale Value</t>
+  </si>
+  <si>
+    <t>House Sale Volume</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2020</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2021</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2022</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2023</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2024</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2025</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2026</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2027</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2028</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2029</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2030</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2031</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2032</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2033</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2034</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2035</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2036</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2037</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2038</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2039</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2040</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2041</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2042</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2043</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2044</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2045</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2046</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2047</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2048</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2049</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2050</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2051</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2052</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2053</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2054</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2055</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2056</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2057</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2058</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2059</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2060</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2061</t>
+  </si>
+  <si>
+    <t>Personal and Household Finances ONS</t>
+  </si>
+  <si>
+    <t>Household Expenditure: A6, A35 2018</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2018</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2019</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2020</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2021</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2022</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2023</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2024</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2025</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2026</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2027</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2028</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2029</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2030</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2031</t>
+  </si>
+  <si>
+    <t>Insolvency Statistics ONS</t>
+  </si>
+  <si>
+    <t>Insolvency Statistics 2018</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2018</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2019</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2020</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2021</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2022</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2023</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2024</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2025</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2026</t>
+  </si>
+  <si>
+    <t>Business Activity ONS</t>
+  </si>
+  <si>
+    <t>Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2019</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2020</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2021</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2022</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2023</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2024</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2025</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2026</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2027</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2028</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2029</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2030</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2031</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2032</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2033</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2034</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2035</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2036</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2037</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2038</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2039</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2040</t>
+  </si>
+  <si>
+    <t>https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2041</t>
+  </si>
+  <si>
+    <t>Fingertips Public health data</t>
+  </si>
+  <si>
+    <t>Health Profiles 2021</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-0</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-1</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-2</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-3</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-4</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-5</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-6</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-7</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-8</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-9</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-10</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-11</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-12</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-13</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-14</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-15</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-16</t>
+  </si>
+  <si>
+    <t>https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-17</t>
+  </si>
+  <si>
+    <t>UKMIG001 - Migration by sex by age</t>
+  </si>
+  <si>
+    <t>Migration by sex by age</t>
+  </si>
+  <si>
+    <t>Annual Survey of Hours and Earnings</t>
+  </si>
+  <si>
+    <t>Index of Deprivation</t>
+  </si>
+  <si>
+    <t>DWP Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department for Work and Pensions </t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/collections/dwp-statistical-summaries</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/english-indices-of-deprivation-2019</t>
+  </si>
+  <si>
+    <t>Mortality and birth rates (Life Events)</t>
+  </si>
+  <si>
+    <t>Life events</t>
+  </si>
+  <si>
+    <t>KS401EW - Dwellings, household spaces and accommodation type</t>
+  </si>
+  <si>
+    <t>Dwellings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Deprivation Affecting Children Index (IDACI) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Deprivation Affecting Older People Index (IDAOPI) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index of Multiple Deprivation (IMD) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living Environment Deprivation Domain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Deprivation Domain </t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -816,7 +1599,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -872,12 +1655,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1193,13 +1979,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23935E08-3F13-2545-A2E7-ED061B699ED4}">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:F353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.83203125" bestFit="1" customWidth="1"/>
@@ -1208,7 +1994,7 @@
     <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>188</v>
       </c>
@@ -1224,8 +2010,11 @@
       <c r="E1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1241,8 +2030,11 @@
       <c r="E2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1258,8 +2050,11 @@
       <c r="E3" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1275,8 +2070,11 @@
       <c r="E4" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1289,11 +2087,14 @@
       <c r="D5" t="s">
         <v>204</v>
       </c>
-      <c r="E5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1306,11 +2107,14 @@
       <c r="D6" t="s">
         <v>204</v>
       </c>
-      <c r="E6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1323,11 +2127,14 @@
       <c r="D7" t="s">
         <v>204</v>
       </c>
-      <c r="E7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1340,11 +2147,14 @@
       <c r="D8" t="s">
         <v>204</v>
       </c>
-      <c r="E8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1357,11 +2167,14 @@
       <c r="D9" t="s">
         <v>204</v>
       </c>
-      <c r="E9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1374,11 +2187,14 @@
       <c r="D10" t="s">
         <v>204</v>
       </c>
-      <c r="E10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1391,11 +2207,14 @@
       <c r="D11" t="s">
         <v>204</v>
       </c>
-      <c r="E11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1408,11 +2227,14 @@
       <c r="D12" t="s">
         <v>204</v>
       </c>
-      <c r="E12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1425,11 +2247,14 @@
       <c r="D13" t="s">
         <v>204</v>
       </c>
-      <c r="E13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1442,11 +2267,14 @@
       <c r="D14" t="s">
         <v>204</v>
       </c>
-      <c r="E14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1459,11 +2287,14 @@
       <c r="D15" t="s">
         <v>204</v>
       </c>
-      <c r="E15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1476,11 +2307,14 @@
       <c r="D16" t="s">
         <v>204</v>
       </c>
-      <c r="E16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1493,11 +2327,14 @@
       <c r="D17" t="s">
         <v>204</v>
       </c>
-      <c r="E17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1510,11 +2347,14 @@
       <c r="D18" t="s">
         <v>204</v>
       </c>
-      <c r="E18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1527,11 +2367,14 @@
       <c r="D19" t="s">
         <v>204</v>
       </c>
-      <c r="E19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1544,11 +2387,14 @@
       <c r="D20" t="s">
         <v>204</v>
       </c>
-      <c r="E20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1561,11 +2407,14 @@
       <c r="D21" t="s">
         <v>205</v>
       </c>
-      <c r="E21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1578,11 +2427,14 @@
       <c r="D22" t="s">
         <v>205</v>
       </c>
-      <c r="E22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1595,11 +2447,14 @@
       <c r="D23" t="s">
         <v>205</v>
       </c>
-      <c r="E23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1612,11 +2467,14 @@
       <c r="D24" t="s">
         <v>205</v>
       </c>
-      <c r="E24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1629,11 +2487,14 @@
       <c r="D25" t="s">
         <v>205</v>
       </c>
-      <c r="E25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1646,11 +2507,14 @@
       <c r="D26" t="s">
         <v>205</v>
       </c>
-      <c r="E26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1663,11 +2527,14 @@
       <c r="D27" t="s">
         <v>205</v>
       </c>
-      <c r="E27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1680,11 +2547,14 @@
       <c r="D28" t="s">
         <v>205</v>
       </c>
-      <c r="E28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1697,11 +2567,14 @@
       <c r="D29" t="s">
         <v>205</v>
       </c>
-      <c r="E29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1714,11 +2587,14 @@
       <c r="D30" t="s">
         <v>205</v>
       </c>
-      <c r="E30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1731,11 +2607,14 @@
       <c r="D31" t="s">
         <v>205</v>
       </c>
-      <c r="E31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1748,11 +2627,14 @@
       <c r="D32" t="s">
         <v>205</v>
       </c>
-      <c r="E32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1765,11 +2647,14 @@
       <c r="D33" t="s">
         <v>205</v>
       </c>
-      <c r="E33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1782,11 +2667,14 @@
       <c r="D34" t="s">
         <v>205</v>
       </c>
-      <c r="E34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1799,11 +2687,14 @@
       <c r="D35" t="s">
         <v>205</v>
       </c>
-      <c r="E35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1816,11 +2707,14 @@
       <c r="D36" t="s">
         <v>205</v>
       </c>
-      <c r="E36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1833,11 +2727,14 @@
       <c r="D37" t="s">
         <v>205</v>
       </c>
-      <c r="E37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1850,11 +2747,14 @@
       <c r="D38" t="s">
         <v>205</v>
       </c>
-      <c r="E38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1867,11 +2767,14 @@
       <c r="D39" t="s">
         <v>206</v>
       </c>
-      <c r="E39" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1884,11 +2787,14 @@
       <c r="D40" t="s">
         <v>206</v>
       </c>
-      <c r="E40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1901,11 +2807,14 @@
       <c r="D41" t="s">
         <v>206</v>
       </c>
-      <c r="E41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1918,11 +2827,14 @@
       <c r="D42" t="s">
         <v>206</v>
       </c>
-      <c r="E42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1935,11 +2847,14 @@
       <c r="D43" t="s">
         <v>206</v>
       </c>
-      <c r="E43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1952,11 +2867,14 @@
       <c r="D44" t="s">
         <v>206</v>
       </c>
-      <c r="E44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1969,11 +2887,14 @@
       <c r="D45" t="s">
         <v>213</v>
       </c>
-      <c r="E45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1986,11 +2907,14 @@
       <c r="D46" t="s">
         <v>213</v>
       </c>
-      <c r="E46" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2003,11 +2927,14 @@
       <c r="D47" t="s">
         <v>213</v>
       </c>
-      <c r="E47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2020,11 +2947,14 @@
       <c r="D48" t="s">
         <v>213</v>
       </c>
-      <c r="E48" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2037,11 +2967,14 @@
       <c r="D49" t="s">
         <v>213</v>
       </c>
-      <c r="E49" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F49">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2054,11 +2987,14 @@
       <c r="D50" t="s">
         <v>213</v>
       </c>
-      <c r="E50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2071,11 +3007,14 @@
       <c r="D51" t="s">
         <v>215</v>
       </c>
-      <c r="E51" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2088,11 +3027,14 @@
       <c r="D52" t="s">
         <v>215</v>
       </c>
-      <c r="E52" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2105,11 +3047,14 @@
       <c r="D53" t="s">
         <v>215</v>
       </c>
-      <c r="E53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2122,11 +3067,14 @@
       <c r="D54" t="s">
         <v>215</v>
       </c>
-      <c r="E54" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2139,11 +3087,14 @@
       <c r="D55" t="s">
         <v>215</v>
       </c>
-      <c r="E55" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2156,11 +3107,14 @@
       <c r="D56" t="s">
         <v>217</v>
       </c>
-      <c r="E56" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F56">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2173,11 +3127,14 @@
       <c r="D57" t="s">
         <v>219</v>
       </c>
-      <c r="E57" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2190,11 +3147,14 @@
       <c r="D58" t="s">
         <v>219</v>
       </c>
-      <c r="E58" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2207,11 +3167,14 @@
       <c r="D59" t="s">
         <v>219</v>
       </c>
-      <c r="E59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2224,11 +3187,14 @@
       <c r="D60" t="s">
         <v>217</v>
       </c>
-      <c r="E60" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2241,11 +3207,14 @@
       <c r="D61" t="s">
         <v>217</v>
       </c>
-      <c r="E61" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2258,11 +3227,14 @@
       <c r="D62" t="s">
         <v>217</v>
       </c>
-      <c r="E62" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2275,11 +3247,14 @@
       <c r="D63" t="s">
         <v>221</v>
       </c>
-      <c r="E63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="E63" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2292,11 +3267,14 @@
       <c r="D64" t="s">
         <v>221</v>
       </c>
-      <c r="E64" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="E64" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2309,11 +3287,14 @@
       <c r="D65" t="s">
         <v>221</v>
       </c>
-      <c r="E65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="E65" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2326,11 +3307,14 @@
       <c r="D66" t="s">
         <v>221</v>
       </c>
-      <c r="E66" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="E66" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F66">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2343,11 +3327,14 @@
       <c r="D67" t="s">
         <v>221</v>
       </c>
-      <c r="E67" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="E67" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2360,11 +3347,14 @@
       <c r="D68" t="s">
         <v>221</v>
       </c>
-      <c r="E68" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="E68" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2377,11 +3367,14 @@
       <c r="D69" t="s">
         <v>221</v>
       </c>
-      <c r="E69" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2394,11 +3387,14 @@
       <c r="D70" t="s">
         <v>223</v>
       </c>
-      <c r="E70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F70">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2411,11 +3407,14 @@
       <c r="D71" t="s">
         <v>223</v>
       </c>
-      <c r="E71" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="E71" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2428,11 +3427,14 @@
       <c r="D72" t="s">
         <v>223</v>
       </c>
-      <c r="E72" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2445,11 +3447,14 @@
       <c r="D73" t="s">
         <v>223</v>
       </c>
-      <c r="E73" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E73" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2462,11 +3467,14 @@
       <c r="D74" t="s">
         <v>223</v>
       </c>
-      <c r="E74" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="E74" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2479,11 +3487,14 @@
       <c r="D75" t="s">
         <v>223</v>
       </c>
-      <c r="E75" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="E75" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2496,11 +3507,14 @@
       <c r="D76" t="s">
         <v>223</v>
       </c>
-      <c r="E76" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="E76" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2513,11 +3527,14 @@
       <c r="D77" t="s">
         <v>223</v>
       </c>
-      <c r="E77" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="E77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2530,11 +3547,14 @@
       <c r="D78" t="s">
         <v>223</v>
       </c>
-      <c r="E78" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2547,11 +3567,14 @@
       <c r="D79" t="s">
         <v>223</v>
       </c>
-      <c r="E79" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2564,11 +3587,14 @@
       <c r="D80" t="s">
         <v>223</v>
       </c>
-      <c r="E80" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2581,11 +3607,14 @@
       <c r="D81" t="s">
         <v>223</v>
       </c>
-      <c r="E81" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2598,11 +3627,14 @@
       <c r="D82" t="s">
         <v>243</v>
       </c>
-      <c r="E82" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="E82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2615,11 +3647,14 @@
       <c r="D83" t="s">
         <v>244</v>
       </c>
-      <c r="E83" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2632,11 +3667,14 @@
       <c r="D84" t="s">
         <v>244</v>
       </c>
-      <c r="E84" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="E84" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F84">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2649,11 +3687,14 @@
       <c r="D85" t="s">
         <v>244</v>
       </c>
-      <c r="E85" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="E85" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2666,11 +3707,14 @@
       <c r="D86" t="s">
         <v>244</v>
       </c>
-      <c r="E86" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="E86" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2683,11 +3727,14 @@
       <c r="D87" t="s">
         <v>244</v>
       </c>
-      <c r="E87" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="E87" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2700,11 +3747,14 @@
       <c r="D88" t="s">
         <v>244</v>
       </c>
-      <c r="E88" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="E88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2717,11 +3767,14 @@
       <c r="D89" t="s">
         <v>250</v>
       </c>
-      <c r="E89" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="E89" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2734,11 +3787,14 @@
       <c r="D90" t="s">
         <v>250</v>
       </c>
-      <c r="E90" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="E90" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2751,11 +3807,14 @@
       <c r="D91" t="s">
         <v>250</v>
       </c>
-      <c r="E91" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="E91" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F91">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2768,11 +3827,14 @@
       <c r="D92" t="s">
         <v>250</v>
       </c>
-      <c r="E92" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="E92" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2785,11 +3847,14 @@
       <c r="D93" t="s">
         <v>250</v>
       </c>
-      <c r="E93" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="E93" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2802,11 +3867,14 @@
       <c r="D94" t="s">
         <v>252</v>
       </c>
-      <c r="E94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="E94" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2819,11 +3887,14 @@
       <c r="D95" t="s">
         <v>252</v>
       </c>
-      <c r="E95" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="E95" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F95">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2836,11 +3907,14 @@
       <c r="D96" t="s">
         <v>252</v>
       </c>
-      <c r="E96" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="E96" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F96">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2853,11 +3927,14 @@
       <c r="D97" t="s">
         <v>252</v>
       </c>
-      <c r="E97" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="E97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F97">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2870,11 +3947,14 @@
       <c r="D98" t="s">
         <v>252</v>
       </c>
-      <c r="E98" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="E98" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F98">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2887,11 +3967,14 @@
       <c r="D99" t="s">
         <v>252</v>
       </c>
-      <c r="E99" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="E99" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F99">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2904,11 +3987,14 @@
       <c r="D100" t="s">
         <v>252</v>
       </c>
-      <c r="E100" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="E100" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2921,11 +4007,14 @@
       <c r="D101" t="s">
         <v>252</v>
       </c>
-      <c r="E101" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="E101" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F101">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2938,11 +4027,14 @@
       <c r="D102" t="s">
         <v>252</v>
       </c>
-      <c r="E102" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="E102" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F102">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2955,11 +4047,14 @@
       <c r="D103" t="s">
         <v>252</v>
       </c>
-      <c r="E103" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="E103" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F103">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2972,11 +4067,14 @@
       <c r="D104" t="s">
         <v>252</v>
       </c>
-      <c r="E104" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="E104" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F104">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2989,11 +4087,14 @@
       <c r="D105" t="s">
         <v>252</v>
       </c>
-      <c r="E105" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="E105" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F105">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3006,11 +4107,14 @@
       <c r="D106" t="s">
         <v>252</v>
       </c>
-      <c r="E106" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="E106" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F106">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3023,11 +4127,14 @@
       <c r="D107" t="s">
         <v>252</v>
       </c>
-      <c r="E107" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="E107" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F107">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3040,11 +4147,14 @@
       <c r="D108" t="s">
         <v>252</v>
       </c>
-      <c r="E108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="E108" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F108">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3057,11 +4167,14 @@
       <c r="D109" t="s">
         <v>252</v>
       </c>
-      <c r="E109" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="E109" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F109">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3074,11 +4187,14 @@
       <c r="D110" t="s">
         <v>252</v>
       </c>
-      <c r="E110" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="E110" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F110">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3091,11 +4207,14 @@
       <c r="D111" t="s">
         <v>252</v>
       </c>
-      <c r="E111" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="E111" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F111">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3108,11 +4227,14 @@
       <c r="D112" t="s">
         <v>254</v>
       </c>
-      <c r="E112" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="E112" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F112">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3125,11 +4247,14 @@
       <c r="D113" t="s">
         <v>254</v>
       </c>
-      <c r="E113" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="E113" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3142,11 +4267,14 @@
       <c r="D114" t="s">
         <v>254</v>
       </c>
-      <c r="E114" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="E114" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F114">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3159,11 +4287,14 @@
       <c r="D115" t="s">
         <v>254</v>
       </c>
-      <c r="E115" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="E115" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F115">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3176,11 +4307,14 @@
       <c r="D116" t="s">
         <v>254</v>
       </c>
-      <c r="E116" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="E116" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F116">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3193,11 +4327,14 @@
       <c r="D117" t="s">
         <v>254</v>
       </c>
-      <c r="E117" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="E117" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F117">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3210,11 +4347,14 @@
       <c r="D118" t="s">
         <v>254</v>
       </c>
-      <c r="E118" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="E118" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F118">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3227,11 +4367,14 @@
       <c r="D119" t="s">
         <v>254</v>
       </c>
-      <c r="E119" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="E119" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F119">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3244,11 +4387,14 @@
       <c r="D120" t="s">
         <v>256</v>
       </c>
-      <c r="E120" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="E120" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F120">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3261,11 +4407,14 @@
       <c r="D121" t="s">
         <v>256</v>
       </c>
-      <c r="E121" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="E121" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F121">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3278,643 +4427,1594 @@
       <c r="D122" t="s">
         <v>256</v>
       </c>
-      <c r="E122" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="E122" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F122">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="C123" t="s">
+        <v>512</v>
+      </c>
+      <c r="D123" t="s">
+        <v>511</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F123">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="C124" t="s">
+        <v>512</v>
+      </c>
+      <c r="D124" t="s">
+        <v>511</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F124">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="C125" t="s">
+        <v>512</v>
+      </c>
+      <c r="D125" t="s">
+        <v>511</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F125">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="C126" t="s">
+        <v>512</v>
+      </c>
+      <c r="D126" t="s">
+        <v>511</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F126">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="C127" t="s">
+        <v>512</v>
+      </c>
+      <c r="D127" t="s">
+        <v>511</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F127">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128" t="s">
+        <v>512</v>
+      </c>
+      <c r="D128" t="s">
+        <v>511</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F128">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" t="s">
+        <v>512</v>
+      </c>
+      <c r="D129" t="s">
+        <v>511</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F129">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130" t="s">
+        <v>512</v>
+      </c>
+      <c r="D130" t="s">
+        <v>511</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F130">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131" t="s">
+        <v>512</v>
+      </c>
+      <c r="D131" t="s">
+        <v>511</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F131">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132" t="s">
+        <v>512</v>
+      </c>
+      <c r="D132" t="s">
+        <v>511</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F132">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133" t="s">
+        <v>512</v>
+      </c>
+      <c r="D133" t="s">
+        <v>511</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F133">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134" t="s">
+        <v>512</v>
+      </c>
+      <c r="D134" t="s">
+        <v>511</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F134">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135" t="s">
+        <v>512</v>
+      </c>
+      <c r="D135" t="s">
+        <v>511</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F135">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136" t="s">
+        <v>512</v>
+      </c>
+      <c r="D136" t="s">
+        <v>511</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F136">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137" t="s">
+        <v>512</v>
+      </c>
+      <c r="D137" t="s">
+        <v>511</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F137">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138" t="s">
+        <v>512</v>
+      </c>
+      <c r="D138" t="s">
+        <v>511</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F138">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139" t="s">
+        <v>512</v>
+      </c>
+      <c r="D139" t="s">
+        <v>511</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F139">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140" t="s">
+        <v>512</v>
+      </c>
+      <c r="D140" t="s">
+        <v>511</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F140">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141" t="s">
+        <v>512</v>
+      </c>
+      <c r="D141" t="s">
+        <v>511</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F141">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142" t="s">
+        <v>512</v>
+      </c>
+      <c r="D142" t="s">
+        <v>511</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F142">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143" t="s">
+        <v>512</v>
+      </c>
+      <c r="D143" t="s">
+        <v>511</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F143">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144" t="s">
+        <v>512</v>
+      </c>
+      <c r="D144" t="s">
+        <v>511</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F144">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145" t="s">
+        <v>512</v>
+      </c>
+      <c r="D145" t="s">
+        <v>511</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F145">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146" t="s">
+        <v>512</v>
+      </c>
+      <c r="D146" t="s">
+        <v>511</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F146">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147" t="s">
+        <v>512</v>
+      </c>
+      <c r="D147" t="s">
+        <v>511</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F147">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148" t="s">
+        <v>512</v>
+      </c>
+      <c r="D148" t="s">
+        <v>511</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F148">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149" t="s">
+        <v>512</v>
+      </c>
+      <c r="D149" t="s">
+        <v>511</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F149">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150" t="s">
+        <v>502</v>
+      </c>
+      <c r="D150" t="s">
+        <v>501</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F150">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151" t="s">
+        <v>502</v>
+      </c>
+      <c r="D151" t="s">
+        <v>501</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F151">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152" t="s">
+        <v>502</v>
+      </c>
+      <c r="D152" t="s">
+        <v>501</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F152">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153" t="s">
+        <v>502</v>
+      </c>
+      <c r="D153" t="s">
+        <v>501</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F153">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154" t="s">
+        <v>502</v>
+      </c>
+      <c r="D154" t="s">
+        <v>501</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F154">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155" t="s">
+        <v>502</v>
+      </c>
+      <c r="D155" t="s">
+        <v>501</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F155">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156" t="s">
+        <v>502</v>
+      </c>
+      <c r="D156" t="s">
+        <v>501</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F156">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157" t="s">
+        <v>502</v>
+      </c>
+      <c r="D157" t="s">
+        <v>501</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F157">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158" t="s">
+        <v>502</v>
+      </c>
+      <c r="D158" t="s">
+        <v>501</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F158">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159" t="s">
+        <v>502</v>
+      </c>
+      <c r="D159" t="s">
+        <v>501</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F159">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160" t="s">
+        <v>502</v>
+      </c>
+      <c r="D160" t="s">
+        <v>501</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F160">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161" t="s">
+        <v>502</v>
+      </c>
+      <c r="D161" t="s">
+        <v>501</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F161">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="C162" t="s">
+        <v>502</v>
+      </c>
+      <c r="D162" t="s">
+        <v>501</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F162">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="C163" t="s">
+        <v>502</v>
+      </c>
+      <c r="D163" t="s">
+        <v>501</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F163">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="C164" t="s">
+        <v>502</v>
+      </c>
+      <c r="D164" t="s">
+        <v>501</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F164">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="C165" t="s">
+        <v>502</v>
+      </c>
+      <c r="D165" t="s">
+        <v>501</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F165">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166" t="s">
+        <v>502</v>
+      </c>
+      <c r="D166" t="s">
+        <v>501</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F166">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167" t="s">
+        <v>502</v>
+      </c>
+      <c r="D167" t="s">
+        <v>501</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F167">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="C168" t="s">
+        <v>502</v>
+      </c>
+      <c r="D168" t="s">
+        <v>501</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F168">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169" t="s">
+        <v>502</v>
+      </c>
+      <c r="D169" t="s">
+        <v>501</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F169">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170" t="s">
+        <v>502</v>
+      </c>
+      <c r="D170" t="s">
+        <v>501</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F170">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171" t="s">
+        <v>502</v>
+      </c>
+      <c r="D171" t="s">
+        <v>501</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F171">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172" t="s">
+        <v>502</v>
+      </c>
+      <c r="D172" t="s">
+        <v>501</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F172">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" t="s">
+        <v>501</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F173">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174" t="s">
+        <v>502</v>
+      </c>
+      <c r="D174" t="s">
+        <v>501</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F174">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175" t="s">
+        <v>502</v>
+      </c>
+      <c r="D175" t="s">
+        <v>501</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F175">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176" t="s">
+        <v>502</v>
+      </c>
+      <c r="D176" t="s">
+        <v>501</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F176">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177" t="s">
+        <v>505</v>
+      </c>
+      <c r="D177" t="s">
+        <v>506</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F177">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="C178" t="s">
+        <v>505</v>
+      </c>
+      <c r="D178" t="s">
+        <v>506</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F178">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179" t="s">
+        <v>505</v>
+      </c>
+      <c r="D179" t="s">
+        <v>506</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F179">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180" t="s">
+        <v>505</v>
+      </c>
+      <c r="D180" t="s">
+        <v>506</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F180">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181" t="s">
+        <v>505</v>
+      </c>
+      <c r="D181" t="s">
+        <v>506</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F181">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182" t="s">
+        <v>505</v>
+      </c>
+      <c r="D182" t="s">
+        <v>506</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F182">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183" t="s">
+        <v>505</v>
+      </c>
+      <c r="D183" t="s">
+        <v>506</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F183">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="C184" t="s">
+        <v>509</v>
+      </c>
+      <c r="D184" t="s">
+        <v>510</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F184">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="C185" t="s">
+        <v>509</v>
+      </c>
+      <c r="D185" t="s">
+        <v>510</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F185">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186" t="s">
+        <v>509</v>
+      </c>
+      <c r="D186" t="s">
+        <v>510</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F186">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187" t="s">
+        <v>509</v>
+      </c>
+      <c r="D187" t="s">
+        <v>510</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F187">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="C188" t="s">
+        <v>515</v>
+      </c>
+      <c r="D188" t="s">
+        <v>504</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F188">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189" t="s">
+        <v>515</v>
+      </c>
+      <c r="D189" t="s">
+        <v>504</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F189">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="C190" t="s">
+        <v>517</v>
+      </c>
+      <c r="D190" t="s">
+        <v>504</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F190">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="C191" t="s">
+        <v>517</v>
+      </c>
+      <c r="D191" t="s">
+        <v>504</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F191">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="C192" t="s">
+        <v>516</v>
+      </c>
+      <c r="D192" t="s">
+        <v>504</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F192">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="C193" t="s">
+        <v>516</v>
+      </c>
+      <c r="D193" t="s">
+        <v>504</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F193">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="C194" t="s">
+        <v>513</v>
+      </c>
+      <c r="D194" t="s">
+        <v>504</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F194">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="C195" t="s">
+        <v>513</v>
+      </c>
+      <c r="D195" t="s">
+        <v>504</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F195">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="C196" t="s">
+        <v>514</v>
+      </c>
+      <c r="D196" t="s">
+        <v>504</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F196">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="C197" t="s">
+        <v>514</v>
+      </c>
+      <c r="D197" t="s">
+        <v>504</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F197">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="C198" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D198" t="s">
+        <v>503</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F198">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="C199" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D199" t="s">
+        <v>503</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F199">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="C200" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D200" t="s">
+        <v>503</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F200">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="C201" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D201" t="s">
+        <v>503</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F201">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3930,8 +6030,11 @@
       <c r="E202" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3947,8 +6050,11 @@
       <c r="E203" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3964,8 +6070,11 @@
       <c r="E204" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3981,8 +6090,11 @@
       <c r="E205" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3998,8 +6110,11 @@
       <c r="E206" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4015,8 +6130,11 @@
       <c r="E207" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4032,8 +6150,11 @@
       <c r="E208" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4048,6 +6169,2889 @@
       </c>
       <c r="E209" s="4" t="s">
         <v>225</v>
+      </c>
+      <c r="F209">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1998</v>
+      </c>
+      <c r="C210" t="s">
+        <v>380</v>
+      </c>
+      <c r="D210" t="s">
+        <v>382</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F210">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>208</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1999</v>
+      </c>
+      <c r="C211" t="s">
+        <v>380</v>
+      </c>
+      <c r="D211" t="s">
+        <v>382</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F211">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>208</v>
+      </c>
+      <c r="B212" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C212" t="s">
+        <v>380</v>
+      </c>
+      <c r="D212" t="s">
+        <v>382</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F212">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>208</v>
+      </c>
+      <c r="B213" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C213" t="s">
+        <v>380</v>
+      </c>
+      <c r="D213" t="s">
+        <v>382</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F213">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>208</v>
+      </c>
+      <c r="B214" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C214" t="s">
+        <v>380</v>
+      </c>
+      <c r="D214" t="s">
+        <v>382</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F214">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>208</v>
+      </c>
+      <c r="B215" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C215" t="s">
+        <v>380</v>
+      </c>
+      <c r="D215" t="s">
+        <v>382</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F215">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>208</v>
+      </c>
+      <c r="B216" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C216" t="s">
+        <v>380</v>
+      </c>
+      <c r="D216" t="s">
+        <v>382</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F216">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>208</v>
+      </c>
+      <c r="B217" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C217" t="s">
+        <v>380</v>
+      </c>
+      <c r="D217" t="s">
+        <v>382</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F217">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>208</v>
+      </c>
+      <c r="B218" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C218" t="s">
+        <v>380</v>
+      </c>
+      <c r="D218" t="s">
+        <v>382</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F218">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>208</v>
+      </c>
+      <c r="B219" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C219" t="s">
+        <v>380</v>
+      </c>
+      <c r="D219" t="s">
+        <v>382</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F219">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>208</v>
+      </c>
+      <c r="B220" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C220" t="s">
+        <v>380</v>
+      </c>
+      <c r="D220" t="s">
+        <v>382</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F220">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>208</v>
+      </c>
+      <c r="B221" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C221" t="s">
+        <v>380</v>
+      </c>
+      <c r="D221" t="s">
+        <v>382</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F221">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>208</v>
+      </c>
+      <c r="B222" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C222" t="s">
+        <v>380</v>
+      </c>
+      <c r="D222" t="s">
+        <v>382</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F222">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>208</v>
+      </c>
+      <c r="B223" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C223" t="s">
+        <v>380</v>
+      </c>
+      <c r="D223" t="s">
+        <v>382</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F223">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>208</v>
+      </c>
+      <c r="B224" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C224" t="s">
+        <v>380</v>
+      </c>
+      <c r="D224" t="s">
+        <v>382</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F224">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>208</v>
+      </c>
+      <c r="B225" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C225" t="s">
+        <v>380</v>
+      </c>
+      <c r="D225" t="s">
+        <v>382</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F225">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>208</v>
+      </c>
+      <c r="B226" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C226" t="s">
+        <v>380</v>
+      </c>
+      <c r="D226" t="s">
+        <v>382</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F226">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>208</v>
+      </c>
+      <c r="B227" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C227" t="s">
+        <v>380</v>
+      </c>
+      <c r="D227" t="s">
+        <v>382</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F227">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>208</v>
+      </c>
+      <c r="B228" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C228" t="s">
+        <v>380</v>
+      </c>
+      <c r="D228" t="s">
+        <v>382</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F228">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>208</v>
+      </c>
+      <c r="B229" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C229" t="s">
+        <v>380</v>
+      </c>
+      <c r="D229" t="s">
+        <v>382</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F229">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>208</v>
+      </c>
+      <c r="B230" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C230" t="s">
+        <v>380</v>
+      </c>
+      <c r="D230" t="s">
+        <v>382</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F230">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>208</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C231" t="s">
+        <v>383</v>
+      </c>
+      <c r="D231" t="s">
+        <v>382</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F231">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>208</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C232" t="s">
+        <v>383</v>
+      </c>
+      <c r="D232" t="s">
+        <v>382</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F232">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>208</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C233" t="s">
+        <v>383</v>
+      </c>
+      <c r="D233" t="s">
+        <v>382</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F233">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>208</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C234" t="s">
+        <v>383</v>
+      </c>
+      <c r="D234" t="s">
+        <v>382</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F234">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>208</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C235" t="s">
+        <v>383</v>
+      </c>
+      <c r="D235" t="s">
+        <v>382</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F235">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>208</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C236" t="s">
+        <v>383</v>
+      </c>
+      <c r="D236" t="s">
+        <v>382</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F236">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>208</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C237" t="s">
+        <v>383</v>
+      </c>
+      <c r="D237" t="s">
+        <v>382</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F237">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>208</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C238" t="s">
+        <v>383</v>
+      </c>
+      <c r="D238" t="s">
+        <v>382</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F238">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>208</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C239" t="s">
+        <v>383</v>
+      </c>
+      <c r="D239" t="s">
+        <v>382</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F239">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>208</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C240" t="s">
+        <v>383</v>
+      </c>
+      <c r="D240" t="s">
+        <v>382</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F240">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>208</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C241" t="s">
+        <v>383</v>
+      </c>
+      <c r="D241" t="s">
+        <v>382</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F241">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>208</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C242" t="s">
+        <v>383</v>
+      </c>
+      <c r="D242" t="s">
+        <v>382</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F242">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>208</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C243" t="s">
+        <v>383</v>
+      </c>
+      <c r="D243" t="s">
+        <v>382</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F243">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>208</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C244" t="s">
+        <v>383</v>
+      </c>
+      <c r="D244" t="s">
+        <v>382</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F244">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>208</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C245" t="s">
+        <v>383</v>
+      </c>
+      <c r="D245" t="s">
+        <v>382</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F245">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>208</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C246" t="s">
+        <v>383</v>
+      </c>
+      <c r="D246" t="s">
+        <v>382</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F246">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>208</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C247" t="s">
+        <v>383</v>
+      </c>
+      <c r="D247" t="s">
+        <v>382</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F247">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>208</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C248" t="s">
+        <v>385</v>
+      </c>
+      <c r="D248" t="s">
+        <v>384</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F248">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>208</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C249" t="s">
+        <v>385</v>
+      </c>
+      <c r="D249" t="s">
+        <v>384</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F249">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>208</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C250" t="s">
+        <v>385</v>
+      </c>
+      <c r="D250" t="s">
+        <v>384</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F250">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>208</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C251" t="s">
+        <v>385</v>
+      </c>
+      <c r="D251" t="s">
+        <v>384</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F251">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>208</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C252" t="s">
+        <v>385</v>
+      </c>
+      <c r="D252" t="s">
+        <v>384</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F252">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>208</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C253" t="s">
+        <v>385</v>
+      </c>
+      <c r="D253" t="s">
+        <v>384</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F253">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>208</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C254" t="s">
+        <v>385</v>
+      </c>
+      <c r="D254" t="s">
+        <v>384</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F254">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>208</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C255" t="s">
+        <v>385</v>
+      </c>
+      <c r="D255" t="s">
+        <v>384</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F255">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>208</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C256" t="s">
+        <v>385</v>
+      </c>
+      <c r="D256" t="s">
+        <v>384</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F256">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>208</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C257" t="s">
+        <v>385</v>
+      </c>
+      <c r="D257" t="s">
+        <v>384</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F257">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>208</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C258" t="s">
+        <v>385</v>
+      </c>
+      <c r="D258" t="s">
+        <v>384</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F258">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>208</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C259" t="s">
+        <v>385</v>
+      </c>
+      <c r="D259" t="s">
+        <v>384</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F259">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>208</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C260" t="s">
+        <v>385</v>
+      </c>
+      <c r="D260" t="s">
+        <v>384</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F260">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>208</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C261" t="s">
+        <v>385</v>
+      </c>
+      <c r="D261" t="s">
+        <v>384</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F261">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>208</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C262" t="s">
+        <v>385</v>
+      </c>
+      <c r="D262" t="s">
+        <v>384</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F262">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>208</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C263" t="s">
+        <v>385</v>
+      </c>
+      <c r="D263" t="s">
+        <v>384</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F263">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>208</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C264" t="s">
+        <v>385</v>
+      </c>
+      <c r="D264" t="s">
+        <v>384</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F264">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>208</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C265" t="s">
+        <v>385</v>
+      </c>
+      <c r="D265" t="s">
+        <v>384</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F265">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>208</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C266" t="s">
+        <v>385</v>
+      </c>
+      <c r="D266" t="s">
+        <v>384</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F266">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>208</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C267" t="s">
+        <v>385</v>
+      </c>
+      <c r="D267" t="s">
+        <v>384</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F267">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>208</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C268" t="s">
+        <v>385</v>
+      </c>
+      <c r="D268" t="s">
+        <v>384</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F268">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>208</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C269" t="s">
+        <v>386</v>
+      </c>
+      <c r="D269" t="s">
+        <v>384</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F269">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>208</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C270" t="s">
+        <v>386</v>
+      </c>
+      <c r="D270" t="s">
+        <v>384</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F270">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>208</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C271" t="s">
+        <v>386</v>
+      </c>
+      <c r="D271" t="s">
+        <v>384</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F271">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>208</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C272" t="s">
+        <v>386</v>
+      </c>
+      <c r="D272" t="s">
+        <v>384</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F272">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>208</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C273" t="s">
+        <v>386</v>
+      </c>
+      <c r="D273" t="s">
+        <v>384</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F273">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>208</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C274" t="s">
+        <v>386</v>
+      </c>
+      <c r="D274" t="s">
+        <v>384</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F274">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>208</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C275" t="s">
+        <v>386</v>
+      </c>
+      <c r="D275" t="s">
+        <v>384</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F275">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>208</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C276" t="s">
+        <v>386</v>
+      </c>
+      <c r="D276" t="s">
+        <v>384</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F276">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>208</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C277" t="s">
+        <v>386</v>
+      </c>
+      <c r="D277" t="s">
+        <v>384</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F277">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>208</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C278" t="s">
+        <v>386</v>
+      </c>
+      <c r="D278" t="s">
+        <v>384</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F278">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>208</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C279" t="s">
+        <v>386</v>
+      </c>
+      <c r="D279" t="s">
+        <v>384</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F279">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>208</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C280" t="s">
+        <v>386</v>
+      </c>
+      <c r="D280" t="s">
+        <v>384</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F280">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>208</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C281" t="s">
+        <v>386</v>
+      </c>
+      <c r="D281" t="s">
+        <v>384</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F281">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>208</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C282" t="s">
+        <v>386</v>
+      </c>
+      <c r="D282" t="s">
+        <v>384</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F282">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>208</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C283" t="s">
+        <v>386</v>
+      </c>
+      <c r="D283" t="s">
+        <v>384</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F283">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>208</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C284" t="s">
+        <v>386</v>
+      </c>
+      <c r="D284" t="s">
+        <v>384</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F284">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>208</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C285" t="s">
+        <v>386</v>
+      </c>
+      <c r="D285" t="s">
+        <v>384</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F285">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>208</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C286" t="s">
+        <v>386</v>
+      </c>
+      <c r="D286" t="s">
+        <v>384</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F286">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>208</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C287" t="s">
+        <v>386</v>
+      </c>
+      <c r="D287" t="s">
+        <v>384</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F287">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>208</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C288" t="s">
+        <v>386</v>
+      </c>
+      <c r="D288" t="s">
+        <v>384</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F288">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>208</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C289" t="s">
+        <v>386</v>
+      </c>
+      <c r="D289" t="s">
+        <v>384</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F289">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>208</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C290" t="s">
+        <v>430</v>
+      </c>
+      <c r="D290" t="s">
+        <v>429</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F290">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>208</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C291" t="s">
+        <v>430</v>
+      </c>
+      <c r="D291" t="s">
+        <v>429</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F291">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>208</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C292" t="s">
+        <v>430</v>
+      </c>
+      <c r="D292" t="s">
+        <v>429</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F292">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>208</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C293" t="s">
+        <v>430</v>
+      </c>
+      <c r="D293" t="s">
+        <v>429</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F293">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>208</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C294" t="s">
+        <v>430</v>
+      </c>
+      <c r="D294" t="s">
+        <v>429</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F294">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>208</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C295" t="s">
+        <v>430</v>
+      </c>
+      <c r="D295" t="s">
+        <v>429</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F295">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>208</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C296" t="s">
+        <v>430</v>
+      </c>
+      <c r="D296" t="s">
+        <v>429</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F296">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>208</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C297" t="s">
+        <v>430</v>
+      </c>
+      <c r="D297" t="s">
+        <v>429</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F297">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>208</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C298" t="s">
+        <v>430</v>
+      </c>
+      <c r="D298" t="s">
+        <v>429</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F298">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>208</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C299" t="s">
+        <v>430</v>
+      </c>
+      <c r="D299" t="s">
+        <v>429</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F299">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>208</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C300" t="s">
+        <v>430</v>
+      </c>
+      <c r="D300" t="s">
+        <v>429</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F300">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>208</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C301" t="s">
+        <v>430</v>
+      </c>
+      <c r="D301" t="s">
+        <v>429</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F301">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>208</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C302" t="s">
+        <v>430</v>
+      </c>
+      <c r="D302" t="s">
+        <v>429</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F302">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>208</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C303" t="s">
+        <v>430</v>
+      </c>
+      <c r="D303" t="s">
+        <v>429</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F303">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>208</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" t="s">
+        <v>446</v>
+      </c>
+      <c r="D304" t="s">
+        <v>445</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F304">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>208</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C305" t="s">
+        <v>446</v>
+      </c>
+      <c r="D305" t="s">
+        <v>445</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F305">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>208</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C306" t="s">
+        <v>446</v>
+      </c>
+      <c r="D306" t="s">
+        <v>445</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F306">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>208</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C307" t="s">
+        <v>446</v>
+      </c>
+      <c r="D307" t="s">
+        <v>445</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F307">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>208</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C308" t="s">
+        <v>446</v>
+      </c>
+      <c r="D308" t="s">
+        <v>445</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F308">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>208</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C309" t="s">
+        <v>446</v>
+      </c>
+      <c r="D309" t="s">
+        <v>445</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F309">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>208</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C310" t="s">
+        <v>446</v>
+      </c>
+      <c r="D310" t="s">
+        <v>445</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F310">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>208</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C311" t="s">
+        <v>446</v>
+      </c>
+      <c r="D311" t="s">
+        <v>445</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F311">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>208</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C312" t="s">
+        <v>446</v>
+      </c>
+      <c r="D312" t="s">
+        <v>445</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F312">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>208</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C313" t="s">
+        <v>482</v>
+      </c>
+      <c r="D313" t="s">
+        <v>481</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F313">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>208</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C314" t="s">
+        <v>482</v>
+      </c>
+      <c r="D314" t="s">
+        <v>481</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F314">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>208</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C315" t="s">
+        <v>482</v>
+      </c>
+      <c r="D315" t="s">
+        <v>481</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F315">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>208</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C316" t="s">
+        <v>482</v>
+      </c>
+      <c r="D316" t="s">
+        <v>481</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F316">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>208</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C317" t="s">
+        <v>482</v>
+      </c>
+      <c r="D317" t="s">
+        <v>481</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F317">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>208</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C318" t="s">
+        <v>482</v>
+      </c>
+      <c r="D318" t="s">
+        <v>481</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F318">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>208</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C319" t="s">
+        <v>482</v>
+      </c>
+      <c r="D319" t="s">
+        <v>481</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F319">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>208</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C320" t="s">
+        <v>482</v>
+      </c>
+      <c r="D320" t="s">
+        <v>481</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F320">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>208</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C321" t="s">
+        <v>482</v>
+      </c>
+      <c r="D321" t="s">
+        <v>481</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F321">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>208</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C322" t="s">
+        <v>482</v>
+      </c>
+      <c r="D322" t="s">
+        <v>481</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F322">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>208</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C323" t="s">
+        <v>482</v>
+      </c>
+      <c r="D323" t="s">
+        <v>481</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F323">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>208</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C324" t="s">
+        <v>482</v>
+      </c>
+      <c r="D324" t="s">
+        <v>481</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F324">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>208</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C325" t="s">
+        <v>482</v>
+      </c>
+      <c r="D325" t="s">
+        <v>481</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="F325">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>208</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C326" t="s">
+        <v>482</v>
+      </c>
+      <c r="D326" t="s">
+        <v>481</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F326">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>208</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C327" t="s">
+        <v>482</v>
+      </c>
+      <c r="D327" t="s">
+        <v>481</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="F327">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>208</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C328" t="s">
+        <v>482</v>
+      </c>
+      <c r="D328" t="s">
+        <v>481</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F328">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>208</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C329" t="s">
+        <v>482</v>
+      </c>
+      <c r="D329" t="s">
+        <v>481</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F329">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>208</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C330" t="s">
+        <v>482</v>
+      </c>
+      <c r="D330" t="s">
+        <v>481</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F330">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>208</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C331" t="s">
+        <v>457</v>
+      </c>
+      <c r="D331" t="s">
+        <v>456</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F331">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>208</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C332" t="s">
+        <v>457</v>
+      </c>
+      <c r="D332" t="s">
+        <v>456</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F332">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>208</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C333" t="s">
+        <v>457</v>
+      </c>
+      <c r="D333" t="s">
+        <v>456</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F333">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>208</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C334" t="s">
+        <v>457</v>
+      </c>
+      <c r="D334" t="s">
+        <v>456</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F334">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>208</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C335" t="s">
+        <v>457</v>
+      </c>
+      <c r="D335" t="s">
+        <v>456</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F335">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>208</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C336" t="s">
+        <v>457</v>
+      </c>
+      <c r="D336" t="s">
+        <v>456</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F336">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>208</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C337" t="s">
+        <v>457</v>
+      </c>
+      <c r="D337" t="s">
+        <v>456</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F337">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>208</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C338" t="s">
+        <v>457</v>
+      </c>
+      <c r="D338" t="s">
+        <v>456</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F338">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>208</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C339" t="s">
+        <v>457</v>
+      </c>
+      <c r="D339" t="s">
+        <v>456</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F339">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>208</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C340" t="s">
+        <v>457</v>
+      </c>
+      <c r="D340" t="s">
+        <v>456</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F340">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>208</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C341" t="s">
+        <v>457</v>
+      </c>
+      <c r="D341" t="s">
+        <v>456</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F341">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>208</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C342" t="s">
+        <v>457</v>
+      </c>
+      <c r="D342" t="s">
+        <v>456</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F342">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>208</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C343" t="s">
+        <v>457</v>
+      </c>
+      <c r="D343" t="s">
+        <v>456</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F343">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>208</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C344" t="s">
+        <v>457</v>
+      </c>
+      <c r="D344" t="s">
+        <v>456</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F344">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>208</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C345" t="s">
+        <v>457</v>
+      </c>
+      <c r="D345" t="s">
+        <v>456</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F345">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>208</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C346" t="s">
+        <v>457</v>
+      </c>
+      <c r="D346" t="s">
+        <v>456</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F346">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>208</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C347" t="s">
+        <v>457</v>
+      </c>
+      <c r="D347" t="s">
+        <v>456</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F347">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>208</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C348" t="s">
+        <v>457</v>
+      </c>
+      <c r="D348" t="s">
+        <v>456</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F348">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>208</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C349" t="s">
+        <v>457</v>
+      </c>
+      <c r="D349" t="s">
+        <v>456</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F349">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>208</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C350" t="s">
+        <v>457</v>
+      </c>
+      <c r="D350" t="s">
+        <v>456</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F350">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>208</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C351" t="s">
+        <v>457</v>
+      </c>
+      <c r="D351" t="s">
+        <v>456</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F351">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>208</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C352" t="s">
+        <v>457</v>
+      </c>
+      <c r="D352" t="s">
+        <v>456</v>
+      </c>
+      <c r="E352" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F352">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>208</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C353" t="s">
+        <v>457</v>
+      </c>
+      <c r="D353" t="s">
+        <v>456</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F353">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -4055,9 +9059,45 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{2CDF7BFE-9203-0B49-A6D0-A9064FAA02F9}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{C271F86A-FBD6-724C-9532-7ECFDB390928}"/>
-    <hyperlink ref="E202" r:id="rId3" xr:uid="{6311768B-0149-1A42-9A68-154F4F14C77C}"/>
-    <hyperlink ref="E203:E209" r:id="rId4" display="http://geogale.github.io/2011OAC/" xr:uid="{380D695D-64D6-A74D-AC32-D9CFB617C839}"/>
+    <hyperlink ref="E150" r:id="rId3" xr:uid="{0223BD99-FA5D-A041-8A49-4983C1D48592}"/>
+    <hyperlink ref="E185:E187" r:id="rId4" display="https://www.nomisweb.co.uk/" xr:uid="{A6D2E959-47A8-4343-AA32-78C75B6E826A}"/>
+    <hyperlink ref="E184" r:id="rId5" xr:uid="{CD9BDD53-6DAA-B642-B9D6-65D7C60C8A23}"/>
+    <hyperlink ref="E199:E201" r:id="rId6" display="https://www.nomisweb.co.uk/" xr:uid="{1B6F954F-18D5-F149-A688-B6CB73D44181}"/>
+    <hyperlink ref="E198" r:id="rId7" xr:uid="{FAF28140-0A08-F248-A92C-84B3C31296FC}"/>
+    <hyperlink ref="E188" r:id="rId8" xr:uid="{A031FD0F-13F5-CA4D-9596-F5CFC855B1D5}"/>
+    <hyperlink ref="E178:E183" r:id="rId9" display="https://www.gov.uk/government/collections/dwp-statistical-summaries" xr:uid="{138C5C7D-4902-E943-8E71-C3CEB87632CB}"/>
+    <hyperlink ref="E177" r:id="rId10" xr:uid="{5A734FB7-380D-3D44-9E40-9A2B6B78C051}"/>
+    <hyperlink ref="E314:E330" r:id="rId11" location="page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-0" display="https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-0" xr:uid="{96E92626-E7AE-0046-9B3A-33AA779B36E5}"/>
+    <hyperlink ref="E313" r:id="rId12" location="page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-0" xr:uid="{EE17F2FE-5E2E-3D48-88FB-6FAF4E61D09F}"/>
+    <hyperlink ref="E332:E353" r:id="rId13" display="https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2019" xr:uid="{080218BA-08BE-EC4D-93CF-048AD282C204}"/>
+    <hyperlink ref="E331" r:id="rId14" xr:uid="{67ABA5A7-0401-AE45-9F72-CD3F5E7BA571}"/>
+    <hyperlink ref="E305:E312" r:id="rId15" display="https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2018" xr:uid="{2D38F138-802E-3045-97F4-7E4C2EC16294}"/>
+    <hyperlink ref="E304" r:id="rId16" xr:uid="{74C7D6B1-AC1A-4A44-8472-39C7D7B1E11A}"/>
+    <hyperlink ref="E291:E303" r:id="rId17" display="https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2018" xr:uid="{3F658B98-5DE3-8241-9154-AF6C4FB955E4}"/>
+    <hyperlink ref="E290" r:id="rId18" xr:uid="{4C449F19-A440-9E41-A475-7E467C6A0BF6}"/>
+    <hyperlink ref="E276:E289" r:id="rId19" display="https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2020" xr:uid="{BF90DEE2-F8E5-324E-B3B0-BD6E3E91CE13}"/>
+    <hyperlink ref="E275" r:id="rId20" display="https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2020" xr:uid="{33314441-5376-2743-A68F-9BBBFDF0C9C0}"/>
+    <hyperlink ref="E249:E274" r:id="rId21" display="https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2020" xr:uid="{A5DC4BFC-65A6-8A40-B678-A22248AD68F9}"/>
+    <hyperlink ref="E248" r:id="rId22" xr:uid="{22C7D8E4-E961-4D4F-969F-B3C501657997}"/>
+    <hyperlink ref="E231:E247" r:id="rId23" display="https://www.ons.gov.uk/economy/grossdomesticproductgdp/datasets/regionalgrossdomesticproductlocalauthorities" xr:uid="{DEE6FD6E-E775-1F42-9190-77C861E0B712}"/>
+    <hyperlink ref="E211:E230" r:id="rId24" display="https://www.ons.gov.uk/economy/grossdomesticproductgdp/datasets/regionalgrossdomesticproductlocalauthorities" xr:uid="{7D3802AE-7AF8-E64E-B578-0F98FF76EA0F}"/>
+    <hyperlink ref="E210" r:id="rId25" xr:uid="{14306401-3B6A-2546-9FD2-7D4ED5742037}"/>
+    <hyperlink ref="E203:E209" r:id="rId26" display="http://geogale.github.io/2011OAC/" xr:uid="{380D695D-64D6-A74D-AC32-D9CFB617C839}"/>
+    <hyperlink ref="E202" r:id="rId27" xr:uid="{6311768B-0149-1A42-9A68-154F4F14C77C}"/>
+    <hyperlink ref="E151:E176" r:id="rId28" display="https://www.nomisweb.co.uk/" xr:uid="{7AA4D184-FA9D-984D-9AF2-9953FFA83D05}"/>
+    <hyperlink ref="E5" r:id="rId29" xr:uid="{82511409-FD24-2746-B89A-159620C8D54F}"/>
+    <hyperlink ref="E6:E149" r:id="rId30" display="https://www.nomisweb.co.uk/" xr:uid="{1D1DD8EA-ADAA-0A45-AFC4-3ABF691FA2B8}"/>
+    <hyperlink ref="E189" r:id="rId31" xr:uid="{C13D9E79-ABF7-E147-A43E-8A7B83B3A0CB}"/>
+    <hyperlink ref="E190" r:id="rId32" xr:uid="{0E3FA19B-C84B-DA41-8D59-D4E88D60ECBF}"/>
+    <hyperlink ref="E192" r:id="rId33" xr:uid="{9429C129-5E0B-7C49-B870-9F9C119692C0}"/>
+    <hyperlink ref="E194" r:id="rId34" xr:uid="{1C7E4B61-E0FE-4747-8EA3-80EBC511B917}"/>
+    <hyperlink ref="E196" r:id="rId35" xr:uid="{2D10F7C4-F193-824A-B38D-934510CF97E5}"/>
+    <hyperlink ref="E191" r:id="rId36" xr:uid="{C8958090-A15E-9E43-937D-92927D31A3A1}"/>
+    <hyperlink ref="E193" r:id="rId37" xr:uid="{84EC8226-BDB1-9043-B23B-A395ADFDC095}"/>
+    <hyperlink ref="E195" r:id="rId38" xr:uid="{6717C52C-7515-5E45-90D6-684C36DF83B8}"/>
+    <hyperlink ref="E197" r:id="rId39" xr:uid="{02BC804B-A3D8-9B45-BA14-5F13706ECC50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/NOMIS/Dictionary NOMIS Data 2011 Census.xlsx
+++ b/NOMIS/Dictionary NOMIS Data 2011 Census.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/W574560/Desktop/datasets/NOMIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgios\Documents\GitHub\datasets\NOMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BC3F9-C018-D04E-B719-ED58068A5AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739AE89-DDE4-455A-83CD-64D425F17B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="1860" windowWidth="28600" windowHeight="17440" xr2:uid="{A3BBF758-14AF-244D-8C9E-2FF243273783}"/>
+    <workbookView xWindow="4140" yWindow="3540" windowWidth="25770" windowHeight="15885" xr2:uid="{A3BBF758-14AF-244D-8C9E-2FF243273783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1981,20 +1981,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23935E08-3F13-2545-A2E7-ED061B699ED4}">
   <dimension ref="A1:F353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="B328" sqref="B328"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>188</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6174,9 +6174,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" s="5">
         <v>1998</v>
@@ -6194,9 +6194,9 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B211" s="5">
         <v>1999</v>
@@ -6214,9 +6214,9 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B212" s="5">
         <v>2000</v>
@@ -6234,9 +6234,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B213" s="5">
         <v>2001</v>
@@ -6254,9 +6254,9 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B214" s="5">
         <v>2002</v>
@@ -6274,9 +6274,9 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B215" s="5">
         <v>2003</v>
@@ -6294,9 +6294,9 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B216" s="5">
         <v>2004</v>
@@ -6314,9 +6314,9 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B217" s="5">
         <v>2005</v>
@@ -6334,9 +6334,9 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B218" s="5">
         <v>2006</v>
@@ -6354,9 +6354,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B219" s="5">
         <v>2007</v>
@@ -6374,9 +6374,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B220" s="5">
         <v>2008</v>
@@ -6394,9 +6394,9 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B221" s="5">
         <v>2009</v>
@@ -6414,9 +6414,9 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B222" s="5">
         <v>2010</v>
@@ -6434,9 +6434,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B223" s="5">
         <v>2011</v>
@@ -6454,9 +6454,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B224" s="5">
         <v>2012</v>
@@ -6474,9 +6474,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B225" s="5">
         <v>2013</v>
@@ -6494,9 +6494,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B226" s="5">
         <v>2014</v>
@@ -6514,9 +6514,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B227" s="5">
         <v>2015</v>
@@ -6534,9 +6534,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B228" s="5">
         <v>2016</v>
@@ -6554,9 +6554,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B229" s="5">
         <v>2017</v>
@@ -6574,9 +6574,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B230" s="5">
         <v>2018</v>
@@ -6594,9 +6594,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>258</v>
@@ -6614,9 +6614,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>259</v>
@@ -6634,9 +6634,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>260</v>
@@ -6654,9 +6654,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>261</v>
@@ -6674,9 +6674,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>262</v>
@@ -6694,9 +6694,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>263</v>
@@ -6714,9 +6714,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>264</v>
@@ -6734,9 +6734,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>265</v>
@@ -6754,9 +6754,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>266</v>
@@ -6774,9 +6774,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>267</v>
@@ -6794,9 +6794,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>268</v>
@@ -6814,9 +6814,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>269</v>
@@ -6834,9 +6834,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>270</v>
@@ -6854,9 +6854,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>271</v>
@@ -6874,9 +6874,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>272</v>
@@ -6894,9 +6894,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>273</v>
@@ -6914,9 +6914,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>274</v>
@@ -6934,9 +6934,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>275</v>
@@ -6954,9 +6954,9 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>276</v>
@@ -6974,9 +6974,9 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>277</v>
@@ -6994,9 +6994,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>278</v>
@@ -7014,9 +7014,9 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>279</v>
@@ -7034,9 +7034,9 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>280</v>
@@ -7054,9 +7054,9 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>281</v>
@@ -7074,9 +7074,9 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>282</v>
@@ -7094,9 +7094,9 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>283</v>
@@ -7114,9 +7114,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>284</v>
@@ -7134,9 +7134,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>285</v>
@@ -7154,9 +7154,9 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>286</v>
@@ -7174,9 +7174,9 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>287</v>
@@ -7194,9 +7194,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>288</v>
@@ -7214,9 +7214,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>289</v>
@@ -7234,9 +7234,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>290</v>
@@ -7254,9 +7254,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>291</v>
@@ -7274,9 +7274,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>292</v>
@@ -7294,9 +7294,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>293</v>
@@ -7314,9 +7314,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>294</v>
@@ -7334,9 +7334,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>295</v>
@@ -7354,9 +7354,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>296</v>
@@ -7374,9 +7374,9 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>297</v>
@@ -7394,9 +7394,9 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>298</v>
@@ -7414,9 +7414,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>299</v>
@@ -7434,9 +7434,9 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>300</v>
@@ -7454,9 +7454,9 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>301</v>
@@ -7474,9 +7474,9 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>302</v>
@@ -7494,9 +7494,9 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>303</v>
@@ -7514,9 +7514,9 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>304</v>
@@ -7534,9 +7534,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>305</v>
@@ -7554,9 +7554,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>306</v>
@@ -7574,9 +7574,9 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>307</v>
@@ -7594,9 +7594,9 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>308</v>
@@ -7614,9 +7614,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>309</v>
@@ -7634,9 +7634,9 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>310</v>
@@ -7654,9 +7654,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>311</v>
@@ -7674,9 +7674,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>312</v>
@@ -7694,9 +7694,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>313</v>
@@ -7714,9 +7714,9 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>314</v>
@@ -7734,9 +7734,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>315</v>
@@ -7754,9 +7754,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>316</v>
@@ -7774,9 +7774,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>317</v>
@@ -7794,9 +7794,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>318</v>
@@ -7814,9 +7814,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>319</v>
@@ -7834,9 +7834,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>320</v>
@@ -7854,9 +7854,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>321</v>
@@ -7874,9 +7874,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>322</v>
@@ -7894,9 +7894,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>323</v>
@@ -7914,9 +7914,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>324</v>
@@ -7934,9 +7934,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>325</v>
@@ -7954,9 +7954,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>326</v>
@@ -7974,9 +7974,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>327</v>
@@ -7994,9 +7994,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>328</v>
@@ -8014,9 +8014,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>329</v>
@@ -8034,9 +8034,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>330</v>
@@ -8054,9 +8054,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>0</v>
@@ -8074,9 +8074,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>331</v>
@@ -8094,9 +8094,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>332</v>
@@ -8114,9 +8114,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>333</v>
@@ -8134,9 +8134,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>334</v>
@@ -8154,9 +8154,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>335</v>
@@ -8174,9 +8174,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>336</v>
@@ -8194,9 +8194,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>337</v>
@@ -8214,9 +8214,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>338</v>
@@ -8234,9 +8234,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>339</v>
@@ -8254,9 +8254,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="B314" s="5" t="s">
         <v>340</v>
@@ -8274,9 +8274,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>341</v>
@@ -8294,9 +8294,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>342</v>
@@ -8314,9 +8314,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>343</v>
@@ -8334,9 +8334,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>208</v>
+        <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>344</v>
@@ -8354,9 +8354,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>345</v>
@@ -8374,9 +8374,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>346</v>
@@ -8394,9 +8394,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>347</v>
@@ -8414,9 +8414,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>348</v>
@@ -8434,9 +8434,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>208</v>
+        <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>349</v>
@@ -8454,9 +8454,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>350</v>
@@ -8474,9 +8474,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>351</v>
@@ -8494,9 +8494,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>352</v>
@@ -8514,9 +8514,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>208</v>
+        <v>326</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>353</v>
@@ -8534,9 +8534,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>208</v>
+        <v>327</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>354</v>
@@ -8554,9 +8554,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>355</v>
@@ -8574,9 +8574,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>356</v>
@@ -8594,9 +8594,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>208</v>
+        <v>330</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>357</v>
@@ -8614,9 +8614,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>358</v>
@@ -8634,9 +8634,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>208</v>
+        <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
         <v>359</v>
@@ -8654,9 +8654,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>360</v>
@@ -8674,9 +8674,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>208</v>
+        <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>361</v>
@@ -8694,9 +8694,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>208</v>
+        <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>362</v>
@@ -8714,9 +8714,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>363</v>
@@ -8734,9 +8734,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
         <v>364</v>
@@ -8754,9 +8754,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>208</v>
+        <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
         <v>365</v>
@@ -8774,9 +8774,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>208</v>
+        <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
         <v>366</v>
@@ -8794,9 +8794,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
         <v>367</v>
@@ -8814,9 +8814,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>368</v>
@@ -8834,9 +8834,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
         <v>369</v>
@@ -8854,9 +8854,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>208</v>
+        <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
         <v>370</v>
@@ -8874,9 +8874,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
         <v>371</v>
@@ -8894,9 +8894,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
         <v>372</v>
@@ -8914,9 +8914,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>208</v>
+        <v>346</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>373</v>
@@ -8934,9 +8934,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>374</v>
@@ -8954,9 +8954,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="B349" s="5" t="s">
         <v>375</v>
@@ -8974,9 +8974,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>208</v>
+        <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
         <v>376</v>
@@ -8994,9 +8994,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>208</v>
+        <v>350</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>377</v>
@@ -9014,9 +9014,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
         <v>378</v>
@@ -9034,9 +9034,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>208</v>
+        <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
         <v>379</v>

--- a/NOMIS/Dictionary NOMIS Data 2011 Census.xlsx
+++ b/NOMIS/Dictionary NOMIS Data 2011 Census.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgios\Documents\GitHub\datasets\NOMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739AE89-DDE4-455A-83CD-64D425F17B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924392D1-2755-4134-AFC3-B991F099B316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3540" windowWidth="25770" windowHeight="15885" xr2:uid="{A3BBF758-14AF-244D-8C9E-2FF243273783}"/>
+    <workbookView xWindow="15495" yWindow="2070" windowWidth="33660" windowHeight="15885" xr2:uid="{A3BBF758-14AF-244D-8C9E-2FF243273783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="552">
   <si>
     <t>Local Authority District</t>
   </si>
@@ -1184,9 +1184,6 @@
     <t>Regional Gross Domestic Product ONS</t>
   </si>
   <si>
-    <t>Regional gross value added (balanced) by industry: local authorities</t>
-  </si>
-  <si>
     <t>UK House Price Index ONS</t>
   </si>
   <si>
@@ -1590,6 +1587,108 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture, Forestry and Fishing (section A), Mining and Quarrying (section B), Electricity, Gas, Steam and Air Conditioning Supply (section D) and Water Supply, Sewerage, Waste Management and Remediation Activities (section E); Regional gross value added (balanced) by industry: local authorities; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing; Regional gross value added (balanced) by industry: local authorities; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction; Regional gross value added (balanced) by industry: local authorities; </t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Transportation and storage; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Accommodation and food service activities; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Information and communication; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Financial and insurance activities; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Real estate activities; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Professional, scientific and technical activities; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Activities of households as employers; undifferentiated goods and services-producing activities of households for own use; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Other service activities; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Arts, entertainment and recreation; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Human health and social work activities; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Education; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Public administration and defence; compulsory social security; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Administrative and support service activities; Regional gross value added (balanced) by industry: local authorities</t>
+  </si>
+  <si>
+    <t>Agriculture, forestry and fishing; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Mining and Quarrying (section B), Electricity, Gas, Steam and Air Conditioning Supply (section D) and Water Supply, Sewerage, Waste Management and Remediation Activities (section E); Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Construction; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Transportation and storage; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Accommodation and food service activities; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Information and communication; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Arts, entertainment and recreation (R), Other service activities (S), Activities of households as employers; undifferentiated goods and services-producing activities of households for own use (T), Other (U); Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Human health and social work activities; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Education; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Financial and insurance activities; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Real estate activities; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Professional, scientific and technical activities; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Administrative and support service activities; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>Public administration and defence; compulsory social security; Number of Businesses by Type 2019</t>
+  </si>
+  <si>
+    <t>LAD16CD</t>
+  </si>
+  <si>
+    <t>Local authority district level code</t>
   </si>
 </sst>
 </file>
@@ -1979,17 +2078,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23935E08-3F13-2545-A2E7-ED061B699ED4}">
-  <dimension ref="A1:F353"/>
+  <dimension ref="A1:F354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A353"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="133.875" customWidth="1"/>
     <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2011,7 +2110,7 @@
         <v>192</v>
       </c>
       <c r="F1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,19 +2138,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3">
-        <v>2011</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,13 +2149,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>212</v>
@@ -2079,16 +2169,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F5">
         <v>2011</v>
@@ -2099,10 +2189,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
         <v>204</v>
@@ -2119,10 +2209,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
         <v>204</v>
@@ -2139,10 +2229,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
         <v>204</v>
@@ -2159,10 +2249,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
         <v>204</v>
@@ -2179,10 +2269,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
         <v>204</v>
@@ -2199,10 +2289,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
         <v>204</v>
@@ -2219,7 +2309,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>199</v>
@@ -2239,7 +2329,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>199</v>
@@ -2259,7 +2349,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>199</v>
@@ -2279,7 +2369,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>199</v>
@@ -2299,10 +2389,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
         <v>204</v>
@@ -2319,7 +2409,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>200</v>
@@ -2339,7 +2429,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>200</v>
@@ -2359,7 +2449,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>200</v>
@@ -2379,7 +2469,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>200</v>
@@ -2399,13 +2489,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>203</v>
@@ -2419,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>207</v>
@@ -2439,7 +2529,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>207</v>
@@ -2459,7 +2549,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>207</v>
@@ -2479,7 +2569,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>207</v>
@@ -2499,7 +2589,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>207</v>
@@ -2519,7 +2609,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>207</v>
@@ -2539,7 +2629,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>207</v>
@@ -2559,7 +2649,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>207</v>
@@ -2579,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>207</v>
@@ -2599,7 +2689,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>207</v>
@@ -2619,7 +2709,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>207</v>
@@ -2639,7 +2729,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
         <v>207</v>
@@ -2659,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
         <v>207</v>
@@ -2679,7 +2769,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>207</v>
@@ -2699,7 +2789,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>207</v>
@@ -2719,7 +2809,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>207</v>
@@ -2739,7 +2829,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>207</v>
@@ -2759,13 +2849,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>203</v>
@@ -2779,7 +2869,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>208</v>
@@ -2799,7 +2889,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
         <v>208</v>
@@ -2819,7 +2909,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>208</v>
@@ -2839,7 +2929,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
         <v>208</v>
@@ -2859,7 +2949,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
         <v>208</v>
@@ -2879,13 +2969,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>203</v>
@@ -2899,7 +2989,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>214</v>
@@ -2919,10 +3009,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D47" t="s">
         <v>213</v>
@@ -2939,7 +3029,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
         <v>199</v>
@@ -2959,10 +3049,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
         <v>213</v>
@@ -2979,7 +3069,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
         <v>200</v>
@@ -2999,13 +3089,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>203</v>
@@ -3019,7 +3109,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
         <v>216</v>
@@ -3039,7 +3129,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
         <v>216</v>
@@ -3059,7 +3149,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
         <v>216</v>
@@ -3079,7 +3169,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
         <v>216</v>
@@ -3099,13 +3189,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>203</v>
@@ -3119,13 +3209,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>203</v>
@@ -3139,7 +3229,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
         <v>220</v>
@@ -3159,7 +3249,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
         <v>220</v>
@@ -3179,13 +3269,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>203</v>
@@ -3199,7 +3289,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
         <v>218</v>
@@ -3219,7 +3309,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
         <v>218</v>
@@ -3239,13 +3329,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D63" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>203</v>
@@ -3259,7 +3349,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
         <v>222</v>
@@ -3279,7 +3369,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
         <v>222</v>
@@ -3299,7 +3389,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
         <v>222</v>
@@ -3319,7 +3409,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
         <v>222</v>
@@ -3339,7 +3429,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
         <v>222</v>
@@ -3359,7 +3449,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
         <v>222</v>
@@ -3379,13 +3469,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>203</v>
@@ -3399,7 +3489,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
         <v>224</v>
@@ -3419,7 +3509,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
         <v>224</v>
@@ -3439,7 +3529,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
         <v>224</v>
@@ -3459,7 +3549,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
         <v>224</v>
@@ -3479,7 +3569,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
         <v>224</v>
@@ -3499,7 +3589,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
         <v>224</v>
@@ -3519,7 +3609,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
         <v>224</v>
@@ -3539,7 +3629,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
         <v>224</v>
@@ -3559,7 +3649,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
         <v>224</v>
@@ -3579,7 +3669,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
         <v>224</v>
@@ -3599,7 +3689,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C81" t="s">
         <v>224</v>
@@ -3619,13 +3709,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>203</v>
@@ -3639,13 +3729,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>203</v>
@@ -3659,10 +3749,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" t="s">
         <v>244</v>
@@ -3679,10 +3769,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" t="s">
         <v>244</v>
@@ -3699,10 +3789,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" t="s">
         <v>244</v>
@@ -3719,10 +3809,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" t="s">
         <v>244</v>
@@ -3739,10 +3829,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C88" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D88" t="s">
         <v>244</v>
@@ -3759,13 +3849,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C89" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D89" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>203</v>
@@ -3779,7 +3869,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
         <v>251</v>
@@ -3799,7 +3889,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
         <v>251</v>
@@ -3819,7 +3909,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C92" t="s">
         <v>251</v>
@@ -3839,7 +3929,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
         <v>251</v>
@@ -3859,13 +3949,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D94" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>203</v>
@@ -3879,7 +3969,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
         <v>253</v>
@@ -3899,7 +3989,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
         <v>253</v>
@@ -3919,7 +4009,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
         <v>253</v>
@@ -3939,7 +4029,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C98" t="s">
         <v>253</v>
@@ -3959,7 +4049,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C99" t="s">
         <v>253</v>
@@ -3979,7 +4069,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
         <v>253</v>
@@ -3999,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C101" t="s">
         <v>253</v>
@@ -4019,7 +4109,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C102" t="s">
         <v>253</v>
@@ -4039,7 +4129,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C103" t="s">
         <v>253</v>
@@ -4059,7 +4149,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
         <v>253</v>
@@ -4079,7 +4169,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C105" t="s">
         <v>253</v>
@@ -4099,7 +4189,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C106" t="s">
         <v>253</v>
@@ -4119,7 +4209,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C107" t="s">
         <v>253</v>
@@ -4139,7 +4229,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
         <v>253</v>
@@ -4159,7 +4249,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
         <v>253</v>
@@ -4179,7 +4269,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C110" t="s">
         <v>253</v>
@@ -4199,7 +4289,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C111" t="s">
         <v>253</v>
@@ -4219,13 +4309,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C112" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D112" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>203</v>
@@ -4239,7 +4329,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C113" t="s">
         <v>255</v>
@@ -4259,7 +4349,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C114" t="s">
         <v>255</v>
@@ -4279,7 +4369,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C115" t="s">
         <v>255</v>
@@ -4299,7 +4389,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C116" t="s">
         <v>255</v>
@@ -4319,7 +4409,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C117" t="s">
         <v>255</v>
@@ -4339,7 +4429,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C118" t="s">
         <v>255</v>
@@ -4359,7 +4449,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C119" t="s">
         <v>255</v>
@@ -4379,13 +4469,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C120" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D120" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>203</v>
@@ -4399,7 +4489,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C121" t="s">
         <v>257</v>
@@ -4419,7 +4509,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C122" t="s">
         <v>257</v>
@@ -4439,13 +4529,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C123" t="s">
-        <v>512</v>
+        <v>257</v>
       </c>
       <c r="D123" t="s">
-        <v>511</v>
+        <v>256</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>203</v>
@@ -4459,13 +4549,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C124" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D124" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>203</v>
@@ -4479,13 +4569,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C125" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D125" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>203</v>
@@ -4499,13 +4589,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C126" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D126" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>203</v>
@@ -4519,13 +4609,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C127" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D127" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>203</v>
@@ -4539,13 +4629,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C128" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D128" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>203</v>
@@ -4559,13 +4649,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C129" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D129" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>203</v>
@@ -4579,13 +4669,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C130" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D130" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>203</v>
@@ -4599,13 +4689,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C131" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D131" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>203</v>
@@ -4619,13 +4709,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C132" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D132" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>203</v>
@@ -4639,13 +4729,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C133" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D133" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>203</v>
@@ -4659,13 +4749,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C134" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D134" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>203</v>
@@ -4679,13 +4769,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C135" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D135" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>203</v>
@@ -4699,13 +4789,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C136" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D136" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>203</v>
@@ -4719,13 +4809,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C137" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D137" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>203</v>
@@ -4739,13 +4829,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C138" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D138" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>203</v>
@@ -4759,13 +4849,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C139" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D139" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>203</v>
@@ -4779,13 +4869,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D140" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>203</v>
@@ -4799,13 +4889,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C141" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D141" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>203</v>
@@ -4819,13 +4909,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C142" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D142" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>203</v>
@@ -4839,13 +4929,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C143" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D143" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>203</v>
@@ -4859,13 +4949,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C144" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D144" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>203</v>
@@ -4879,13 +4969,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C145" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D145" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>203</v>
@@ -4899,13 +4989,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C146" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D146" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>203</v>
@@ -4919,13 +5009,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C147" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D147" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>203</v>
@@ -4939,13 +5029,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D148" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>203</v>
@@ -4959,13 +5049,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C149" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D149" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>203</v>
@@ -4979,13 +5069,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C150" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D150" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>203</v>
@@ -4999,13 +5089,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C151" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D151" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>203</v>
@@ -5019,13 +5109,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D152" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>203</v>
@@ -5039,13 +5129,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C153" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D153" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>203</v>
@@ -5059,13 +5149,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C154" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D154" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>203</v>
@@ -5079,13 +5169,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C155" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D155" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>203</v>
@@ -5099,13 +5189,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C156" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D156" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>203</v>
@@ -5119,13 +5209,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C157" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D157" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>203</v>
@@ -5139,13 +5229,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C158" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D158" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>203</v>
@@ -5159,13 +5249,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C159" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D159" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>203</v>
@@ -5179,13 +5269,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C160" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D160" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>203</v>
@@ -5199,13 +5289,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C161" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D161" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>203</v>
@@ -5219,13 +5309,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C162" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D162" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>203</v>
@@ -5239,13 +5329,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C163" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D163" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>203</v>
@@ -5259,13 +5349,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C164" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D164" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>203</v>
@@ -5279,13 +5369,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C165" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D165" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>203</v>
@@ -5299,13 +5389,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C166" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D166" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>203</v>
@@ -5319,13 +5409,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C167" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D167" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>203</v>
@@ -5339,13 +5429,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C168" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D168" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>203</v>
@@ -5359,13 +5449,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C169" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D169" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>203</v>
@@ -5379,13 +5469,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C170" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D170" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>203</v>
@@ -5399,13 +5489,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D171" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>203</v>
@@ -5419,13 +5509,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D172" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>203</v>
@@ -5439,13 +5529,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C173" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D173" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>203</v>
@@ -5459,13 +5549,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C174" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D174" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>203</v>
@@ -5479,13 +5569,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C175" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D175" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>203</v>
@@ -5499,13 +5589,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="C176" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D176" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>203</v>
@@ -5519,36 +5609,36 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="C177" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D177" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>507</v>
+        <v>203</v>
       </c>
       <c r="F177">
-        <v>2020</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>156</v>
+      <c r="B178" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C178" t="s">
+        <v>504</v>
+      </c>
+      <c r="D178" t="s">
         <v>505</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="F178">
         <v>2020</v>
@@ -5559,16 +5649,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C179" t="s">
+        <v>504</v>
+      </c>
+      <c r="D179" t="s">
         <v>505</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="F179">
         <v>2020</v>
@@ -5579,16 +5669,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C180" t="s">
+        <v>504</v>
+      </c>
+      <c r="D180" t="s">
         <v>505</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="F180">
         <v>2020</v>
@@ -5599,16 +5689,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C181" t="s">
+        <v>504</v>
+      </c>
+      <c r="D181" t="s">
         <v>505</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="F181">
         <v>2020</v>
@@ -5619,16 +5709,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C182" t="s">
+        <v>504</v>
+      </c>
+      <c r="D182" t="s">
         <v>505</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="F182">
         <v>2020</v>
@@ -5639,16 +5729,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C183" t="s">
+        <v>504</v>
+      </c>
+      <c r="D183" t="s">
         <v>505</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="F183">
         <v>2020</v>
@@ -5658,20 +5748,20 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>162</v>
+      <c r="B184" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C184" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D184" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>203</v>
+        <v>506</v>
       </c>
       <c r="F184">
-        <v>2011</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5679,13 +5769,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C185" t="s">
+        <v>508</v>
+      </c>
+      <c r="D185" t="s">
         <v>509</v>
-      </c>
-      <c r="D185" t="s">
-        <v>510</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>203</v>
@@ -5699,13 +5789,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C186" t="s">
+        <v>508</v>
+      </c>
+      <c r="D186" t="s">
         <v>509</v>
-      </c>
-      <c r="D186" t="s">
-        <v>510</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>203</v>
@@ -5719,13 +5809,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C187" t="s">
+        <v>508</v>
+      </c>
+      <c r="D187" t="s">
         <v>509</v>
-      </c>
-      <c r="D187" t="s">
-        <v>510</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>203</v>
@@ -5738,37 +5828,37 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>166</v>
+      <c r="B188" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C188" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D188" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>508</v>
+        <v>203</v>
       </c>
       <c r="F188">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>167</v>
+      <c r="B189" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C189" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D189" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F189">
         <v>2019</v>
@@ -5778,17 +5868,17 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>168</v>
+      <c r="B190" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C190" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D190" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F190">
         <v>2019</v>
@@ -5798,17 +5888,17 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>169</v>
+      <c r="B191" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C191" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D191" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F191">
         <v>2019</v>
@@ -5818,17 +5908,17 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>170</v>
+      <c r="B192" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C192" t="s">
         <v>516</v>
       </c>
       <c r="D192" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F192">
         <v>2019</v>
@@ -5838,17 +5928,17 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>171</v>
+      <c r="B193" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C193" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D193" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F193">
         <v>2019</v>
@@ -5858,17 +5948,17 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>172</v>
+      <c r="B194" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C194" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D194" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F194">
         <v>2019</v>
@@ -5878,17 +5968,17 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>173</v>
+      <c r="B195" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C195" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D195" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F195">
         <v>2019</v>
@@ -5898,17 +5988,17 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>174</v>
+      <c r="B196" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C196" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D196" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F196">
         <v>2019</v>
@@ -5918,17 +6008,17 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>175</v>
+      <c r="B197" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C197" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D197" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F197">
         <v>2019</v>
@@ -5939,19 +6029,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="C198" t="s">
+        <v>513</v>
       </c>
       <c r="D198" t="s">
         <v>503</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>203</v>
+        <v>507</v>
       </c>
       <c r="F198">
-        <v>2011</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5959,13 +6049,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D199" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>203</v>
@@ -5979,13 +6069,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D200" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>203</v>
@@ -5999,13 +6089,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D201" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>203</v>
@@ -6018,17 +6108,17 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C202" t="s">
-        <v>234</v>
+      <c r="B202" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D202" t="s">
-        <v>226</v>
+        <v>502</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F202">
         <v>2011</v>
@@ -6039,13 +6129,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C203" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D203" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>225</v>
@@ -6059,13 +6149,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D204" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>225</v>
@@ -6079,13 +6169,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>225</v>
@@ -6099,13 +6189,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C206" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>225</v>
@@ -6119,13 +6209,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C207" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D207" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>225</v>
@@ -6139,13 +6229,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C208" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D208" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>225</v>
@@ -6159,13 +6249,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C209" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D209" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>225</v>
@@ -6178,20 +6268,20 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="5">
-        <v>1998</v>
+      <c r="B210" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C210" t="s">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="D210" t="s">
-        <v>382</v>
+        <v>233</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>381</v>
+        <v>225</v>
       </c>
       <c r="F210">
-        <v>1998</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6199,7 +6289,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="5">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C211" t="s">
         <v>380</v>
@@ -6211,7 +6301,7 @@
         <v>381</v>
       </c>
       <c r="F211">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6219,7 +6309,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C212" t="s">
         <v>380</v>
@@ -6231,7 +6321,7 @@
         <v>381</v>
       </c>
       <c r="F212">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6239,7 +6329,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="5">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C213" t="s">
         <v>380</v>
@@ -6251,7 +6341,7 @@
         <v>381</v>
       </c>
       <c r="F213">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6259,7 +6349,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C214" t="s">
         <v>380</v>
@@ -6271,7 +6361,7 @@
         <v>381</v>
       </c>
       <c r="F214">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6279,7 +6369,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C215" t="s">
         <v>380</v>
@@ -6291,7 +6381,7 @@
         <v>381</v>
       </c>
       <c r="F215">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,7 +6389,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C216" t="s">
         <v>380</v>
@@ -6311,7 +6401,7 @@
         <v>381</v>
       </c>
       <c r="F216">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6319,7 +6409,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="5">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C217" t="s">
         <v>380</v>
@@ -6331,7 +6421,7 @@
         <v>381</v>
       </c>
       <c r="F217">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6339,7 +6429,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="5">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C218" t="s">
         <v>380</v>
@@ -6351,7 +6441,7 @@
         <v>381</v>
       </c>
       <c r="F218">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6359,7 +6449,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="5">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C219" t="s">
         <v>380</v>
@@ -6371,7 +6461,7 @@
         <v>381</v>
       </c>
       <c r="F219">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6379,7 +6469,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C220" t="s">
         <v>380</v>
@@ -6391,7 +6481,7 @@
         <v>381</v>
       </c>
       <c r="F220">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6399,7 +6489,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="5">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C221" t="s">
         <v>380</v>
@@ -6411,7 +6501,7 @@
         <v>381</v>
       </c>
       <c r="F221">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6419,7 +6509,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="5">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C222" t="s">
         <v>380</v>
@@ -6431,7 +6521,7 @@
         <v>381</v>
       </c>
       <c r="F222">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6439,7 +6529,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C223" t="s">
         <v>380</v>
@@ -6451,7 +6541,7 @@
         <v>381</v>
       </c>
       <c r="F223">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6459,7 +6549,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C224" t="s">
         <v>380</v>
@@ -6471,7 +6561,7 @@
         <v>381</v>
       </c>
       <c r="F224">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6479,7 +6569,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C225" t="s">
         <v>380</v>
@@ -6491,7 +6581,7 @@
         <v>381</v>
       </c>
       <c r="F225">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6499,7 +6589,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C226" t="s">
         <v>380</v>
@@ -6511,7 +6601,7 @@
         <v>381</v>
       </c>
       <c r="F226">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6519,7 +6609,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C227" t="s">
         <v>380</v>
@@ -6531,7 +6621,7 @@
         <v>381</v>
       </c>
       <c r="F227">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6539,7 +6629,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C228" t="s">
         <v>380</v>
@@ -6551,7 +6641,7 @@
         <v>381</v>
       </c>
       <c r="F228">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6559,7 +6649,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C229" t="s">
         <v>380</v>
@@ -6571,7 +6661,7 @@
         <v>381</v>
       </c>
       <c r="F229">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6579,7 +6669,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C230" t="s">
         <v>380</v>
@@ -6591,18 +6681,18 @@
         <v>381</v>
       </c>
       <c r="F230">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="5" t="s">
-        <v>258</v>
+      <c r="B231" s="5">
+        <v>2018</v>
       </c>
       <c r="C231" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D231" t="s">
         <v>382</v>
@@ -6619,10 +6709,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C232" t="s">
-        <v>383</v>
+        <v>518</v>
       </c>
       <c r="D232" t="s">
         <v>382</v>
@@ -6639,10 +6729,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C233" t="s">
-        <v>383</v>
+        <v>519</v>
       </c>
       <c r="D233" t="s">
         <v>382</v>
@@ -6659,10 +6749,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C234" t="s">
-        <v>383</v>
+        <v>520</v>
       </c>
       <c r="D234" t="s">
         <v>382</v>
@@ -6679,10 +6769,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C235" t="s">
-        <v>383</v>
+        <v>521</v>
       </c>
       <c r="D235" t="s">
         <v>382</v>
@@ -6699,10 +6789,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C236" t="s">
-        <v>383</v>
+        <v>522</v>
       </c>
       <c r="D236" t="s">
         <v>382</v>
@@ -6719,10 +6809,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C237" t="s">
-        <v>383</v>
+        <v>523</v>
       </c>
       <c r="D237" t="s">
         <v>382</v>
@@ -6739,10 +6829,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C238" t="s">
-        <v>383</v>
+        <v>524</v>
       </c>
       <c r="D238" t="s">
         <v>382</v>
@@ -6759,10 +6849,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C239" t="s">
-        <v>383</v>
+        <v>525</v>
       </c>
       <c r="D239" t="s">
         <v>382</v>
@@ -6779,10 +6869,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C240" t="s">
-        <v>383</v>
+        <v>526</v>
       </c>
       <c r="D240" t="s">
         <v>382</v>
@@ -6799,10 +6889,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C241" t="s">
-        <v>383</v>
+        <v>527</v>
       </c>
       <c r="D241" t="s">
         <v>382</v>
@@ -6819,10 +6909,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C242" t="s">
-        <v>383</v>
+        <v>534</v>
       </c>
       <c r="D242" t="s">
         <v>382</v>
@@ -6839,10 +6929,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C243" t="s">
-        <v>383</v>
+        <v>533</v>
       </c>
       <c r="D243" t="s">
         <v>382</v>
@@ -6859,10 +6949,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C244" t="s">
-        <v>383</v>
+        <v>532</v>
       </c>
       <c r="D244" t="s">
         <v>382</v>
@@ -6879,10 +6969,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C245" t="s">
-        <v>383</v>
+        <v>531</v>
       </c>
       <c r="D245" t="s">
         <v>382</v>
@@ -6899,10 +6989,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C246" t="s">
-        <v>383</v>
+        <v>530</v>
       </c>
       <c r="D246" t="s">
         <v>382</v>
@@ -6919,10 +7009,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C247" t="s">
-        <v>383</v>
+        <v>529</v>
       </c>
       <c r="D247" t="s">
         <v>382</v>
@@ -6939,19 +7029,19 @@
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C248" t="s">
-        <v>385</v>
+        <v>528</v>
       </c>
       <c r="D248" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F248">
-        <v>1998</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6959,19 +7049,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C249" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D249" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F249">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6979,19 +7069,19 @@
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C250" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D250" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F250">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,19 +7089,19 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C251" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D251" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F251">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7019,19 +7109,19 @@
         <v>251</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C252" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D252" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F252">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -7039,19 +7129,19 @@
         <v>252</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C253" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D253" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F253">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,19 +7149,19 @@
         <v>253</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C254" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D254" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F254">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7079,19 +7169,19 @@
         <v>254</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C255" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D255" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F255">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7099,19 +7189,19 @@
         <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C256" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D256" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F256">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7119,19 +7209,19 @@
         <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C257" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D257" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F257">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -7139,19 +7229,19 @@
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C258" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D258" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F258">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -7159,19 +7249,19 @@
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C259" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D259" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F259">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -7179,19 +7269,19 @@
         <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C260" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D260" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F260">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -7199,19 +7289,19 @@
         <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C261" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D261" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F261">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7219,19 +7309,19 @@
         <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C262" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D262" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F262">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -7239,19 +7329,19 @@
         <v>262</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C263" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D263" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F263">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -7259,19 +7349,19 @@
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C264" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D264" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F264">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -7279,19 +7369,19 @@
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C265" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D265" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F265">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -7299,19 +7389,19 @@
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C266" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D266" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F266">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7319,19 +7409,19 @@
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C267" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D267" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F267">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,19 +7429,19 @@
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C268" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D268" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F268">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7359,19 +7449,19 @@
         <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C269" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D269" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F269">
-        <v>1998</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7379,19 +7469,19 @@
         <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C270" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D270" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F270">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7399,19 +7489,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C271" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D271" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F271">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7419,19 +7509,19 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C272" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D272" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F272">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7439,19 +7529,19 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C273" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D273" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F273">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -7459,19 +7549,19 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C274" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D274" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F274">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -7479,19 +7569,19 @@
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C275" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D275" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F275">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -7499,19 +7589,19 @@
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C276" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D276" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F276">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -7519,19 +7609,19 @@
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C277" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D277" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F277">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,19 +7629,19 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C278" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D278" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F278">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -7559,19 +7649,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C279" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D279" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F279">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -7579,19 +7669,19 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C280" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D280" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F280">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -7599,19 +7689,19 @@
         <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C281" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D281" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F281">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -7619,19 +7709,19 @@
         <v>281</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C282" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D282" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F282">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -7639,19 +7729,19 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C283" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D283" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F283">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -7659,19 +7749,19 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C284" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D284" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F284">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -7679,19 +7769,19 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C285" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D285" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F285">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -7699,19 +7789,19 @@
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C286" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D286" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F286">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -7719,19 +7809,19 @@
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C287" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D287" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F287">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -7739,19 +7829,19 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C288" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D288" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F288">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -7759,19 +7849,19 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C289" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D289" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F289">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -7779,16 +7869,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C290" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="D290" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F290">
         <v>2018</v>
@@ -7799,16 +7889,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C291" t="s">
+        <v>429</v>
+      </c>
+      <c r="D291" t="s">
+        <v>428</v>
+      </c>
+      <c r="E291" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="D291" t="s">
-        <v>429</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>432</v>
       </c>
       <c r="F291">
         <v>2018</v>
@@ -7819,16 +7909,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C292" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D292" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F292">
         <v>2018</v>
@@ -7839,16 +7929,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C293" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D293" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F293">
         <v>2018</v>
@@ -7859,16 +7949,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C294" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D294" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F294">
         <v>2018</v>
@@ -7879,16 +7969,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C295" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D295" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F295">
         <v>2018</v>
@@ -7899,16 +7989,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C296" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D296" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F296">
         <v>2018</v>
@@ -7919,16 +8009,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C297" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D297" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F297">
         <v>2018</v>
@@ -7939,16 +8029,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C298" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D298" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F298">
         <v>2018</v>
@@ -7959,16 +8049,16 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C299" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D299" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F299">
         <v>2018</v>
@@ -7979,16 +8069,16 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C300" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D300" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F300">
         <v>2018</v>
@@ -7999,16 +8089,16 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C301" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D301" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F301">
         <v>2018</v>
@@ -8019,16 +8109,16 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C302" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D302" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F302">
         <v>2018</v>
@@ -8039,16 +8129,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C303" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D303" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F303">
         <v>2018</v>
@@ -8059,16 +8149,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="C304" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D304" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F304">
         <v>2018</v>
@@ -8079,16 +8169,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="C305" t="s">
+        <v>445</v>
+      </c>
+      <c r="D305" t="s">
+        <v>444</v>
+      </c>
+      <c r="E305" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="D305" t="s">
-        <v>445</v>
-      </c>
-      <c r="E305" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="F305">
         <v>2018</v>
@@ -8099,16 +8189,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C306" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D306" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F306">
         <v>2018</v>
@@ -8119,16 +8209,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C307" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D307" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F307">
         <v>2018</v>
@@ -8139,16 +8229,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C308" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D308" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F308">
         <v>2018</v>
@@ -8159,16 +8249,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C309" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D309" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F309">
         <v>2018</v>
@@ -8179,16 +8269,16 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C310" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D310" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F310">
         <v>2018</v>
@@ -8199,16 +8289,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C311" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D311" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F311">
         <v>2018</v>
@@ -8219,16 +8309,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C312" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D312" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F312">
         <v>2018</v>
@@ -8239,19 +8329,19 @@
         <v>312</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C313" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="D313" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="F313">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -8259,16 +8349,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C314" t="s">
+        <v>481</v>
+      </c>
+      <c r="D314" t="s">
+        <v>480</v>
+      </c>
+      <c r="E314" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="D314" t="s">
-        <v>481</v>
-      </c>
-      <c r="E314" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="F314">
         <v>2021</v>
@@ -8279,16 +8369,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C315" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D315" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F315">
         <v>2021</v>
@@ -8299,16 +8389,16 @@
         <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C316" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D316" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F316">
         <v>2021</v>
@@ -8319,16 +8409,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C317" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D317" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F317">
         <v>2021</v>
@@ -8339,16 +8429,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C318" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D318" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F318">
         <v>2021</v>
@@ -8359,16 +8449,16 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C319" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D319" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F319">
         <v>2021</v>
@@ -8379,16 +8469,16 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C320" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D320" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F320">
         <v>2021</v>
@@ -8399,16 +8489,16 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C321" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D321" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F321">
         <v>2021</v>
@@ -8419,16 +8509,16 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C322" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D322" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F322">
         <v>2021</v>
@@ -8439,16 +8529,16 @@
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C323" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D323" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F323">
         <v>2021</v>
@@ -8459,16 +8549,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C324" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D324" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F324">
         <v>2021</v>
@@ -8479,16 +8569,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C325" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D325" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F325">
         <v>2021</v>
@@ -8499,16 +8589,16 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C326" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D326" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F326">
         <v>2021</v>
@@ -8519,16 +8609,16 @@
         <v>326</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C327" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D327" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F327">
         <v>2021</v>
@@ -8539,16 +8629,16 @@
         <v>327</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C328" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D328" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F328">
         <v>2021</v>
@@ -8559,16 +8649,16 @@
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C329" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D329" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F329">
         <v>2021</v>
@@ -8579,16 +8669,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C330" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D330" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F330">
         <v>2021</v>
@@ -8599,19 +8689,19 @@
         <v>330</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C331" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="D331" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="F331">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -8619,16 +8709,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C332" t="s">
+        <v>535</v>
+      </c>
+      <c r="D332" t="s">
+        <v>455</v>
+      </c>
+      <c r="E332" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="D332" t="s">
-        <v>456</v>
-      </c>
-      <c r="E332" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="F332">
         <v>2019</v>
@@ -8639,16 +8729,16 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C333" t="s">
-        <v>457</v>
+        <v>536</v>
       </c>
       <c r="D333" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F333">
         <v>2019</v>
@@ -8659,16 +8749,16 @@
         <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C334" t="s">
-        <v>457</v>
+        <v>537</v>
       </c>
       <c r="D334" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F334">
         <v>2019</v>
@@ -8679,16 +8769,16 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C335" t="s">
-        <v>457</v>
+        <v>538</v>
       </c>
       <c r="D335" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F335">
         <v>2019</v>
@@ -8699,16 +8789,16 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C336" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
       <c r="D336" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F336">
         <v>2019</v>
@@ -8719,16 +8809,16 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C337" t="s">
-        <v>457</v>
+        <v>540</v>
       </c>
       <c r="D337" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F337">
         <v>2019</v>
@@ -8739,16 +8829,16 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C338" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="D338" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F338">
         <v>2019</v>
@@ -8759,16 +8849,16 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C339" t="s">
-        <v>457</v>
+        <v>545</v>
       </c>
       <c r="D339" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F339">
         <v>2019</v>
@@ -8779,16 +8869,16 @@
         <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C340" t="s">
-        <v>457</v>
+        <v>546</v>
       </c>
       <c r="D340" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F340">
         <v>2019</v>
@@ -8799,16 +8889,16 @@
         <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C341" t="s">
-        <v>457</v>
+        <v>547</v>
       </c>
       <c r="D341" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F341">
         <v>2019</v>
@@ -8819,16 +8909,16 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C342" t="s">
-        <v>457</v>
+        <v>548</v>
       </c>
       <c r="D342" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F342">
         <v>2019</v>
@@ -8839,16 +8929,16 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C343" t="s">
-        <v>457</v>
+        <v>549</v>
       </c>
       <c r="D343" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F343">
         <v>2019</v>
@@ -8859,16 +8949,16 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C344" t="s">
-        <v>457</v>
+        <v>544</v>
       </c>
       <c r="D344" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F344">
         <v>2019</v>
@@ -8879,16 +8969,16 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C345" t="s">
-        <v>457</v>
+        <v>543</v>
       </c>
       <c r="D345" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F345">
         <v>2019</v>
@@ -8899,16 +8989,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C346" t="s">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="D346" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F346">
         <v>2019</v>
@@ -8919,16 +9009,16 @@
         <v>346</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C347" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D347" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F347">
         <v>2019</v>
@@ -8939,16 +9029,16 @@
         <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C348" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D348" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F348">
         <v>2019</v>
@@ -8959,16 +9049,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C349" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D349" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F349">
         <v>2019</v>
@@ -8979,16 +9069,16 @@
         <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C350" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D350" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F350">
         <v>2019</v>
@@ -8999,16 +9089,16 @@
         <v>350</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C351" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D351" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F351">
         <v>2019</v>
@@ -9019,16 +9109,16 @@
         <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C352" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D352" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F352">
         <v>2019</v>
@@ -9039,63 +9129,83 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C353" t="s">
+        <v>456</v>
+      </c>
+      <c r="D353" t="s">
+        <v>455</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F353">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C353" t="s">
-        <v>457</v>
-      </c>
-      <c r="D353" t="s">
+      <c r="C354" t="s">
         <v>456</v>
       </c>
-      <c r="E353" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F353">
+      <c r="D354" t="s">
+        <v>455</v>
+      </c>
+      <c r="E354" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F354">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{2CDF7BFE-9203-0B49-A6D0-A9064FAA02F9}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{C271F86A-FBD6-724C-9532-7ECFDB390928}"/>
-    <hyperlink ref="E150" r:id="rId3" xr:uid="{0223BD99-FA5D-A041-8A49-4983C1D48592}"/>
-    <hyperlink ref="E185:E187" r:id="rId4" display="https://www.nomisweb.co.uk/" xr:uid="{A6D2E959-47A8-4343-AA32-78C75B6E826A}"/>
-    <hyperlink ref="E184" r:id="rId5" xr:uid="{CD9BDD53-6DAA-B642-B9D6-65D7C60C8A23}"/>
-    <hyperlink ref="E199:E201" r:id="rId6" display="https://www.nomisweb.co.uk/" xr:uid="{1B6F954F-18D5-F149-A688-B6CB73D44181}"/>
-    <hyperlink ref="E198" r:id="rId7" xr:uid="{FAF28140-0A08-F248-A92C-84B3C31296FC}"/>
-    <hyperlink ref="E188" r:id="rId8" xr:uid="{A031FD0F-13F5-CA4D-9596-F5CFC855B1D5}"/>
-    <hyperlink ref="E178:E183" r:id="rId9" display="https://www.gov.uk/government/collections/dwp-statistical-summaries" xr:uid="{138C5C7D-4902-E943-8E71-C3CEB87632CB}"/>
-    <hyperlink ref="E177" r:id="rId10" xr:uid="{5A734FB7-380D-3D44-9E40-9A2B6B78C051}"/>
-    <hyperlink ref="E314:E330" r:id="rId11" location="page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-0" display="https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-0" xr:uid="{96E92626-E7AE-0046-9B3A-33AA779B36E5}"/>
-    <hyperlink ref="E313" r:id="rId12" location="page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-0" xr:uid="{EE17F2FE-5E2E-3D48-88FB-6FAF4E61D09F}"/>
-    <hyperlink ref="E332:E353" r:id="rId13" display="https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2019" xr:uid="{080218BA-08BE-EC4D-93CF-048AD282C204}"/>
-    <hyperlink ref="E331" r:id="rId14" xr:uid="{67ABA5A7-0401-AE45-9F72-CD3F5E7BA571}"/>
-    <hyperlink ref="E305:E312" r:id="rId15" display="https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2018" xr:uid="{2D38F138-802E-3045-97F4-7E4C2EC16294}"/>
-    <hyperlink ref="E304" r:id="rId16" xr:uid="{74C7D6B1-AC1A-4A44-8472-39C7D7B1E11A}"/>
-    <hyperlink ref="E291:E303" r:id="rId17" display="https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2018" xr:uid="{3F658B98-5DE3-8241-9154-AF6C4FB955E4}"/>
-    <hyperlink ref="E290" r:id="rId18" xr:uid="{4C449F19-A440-9E41-A475-7E467C6A0BF6}"/>
-    <hyperlink ref="E276:E289" r:id="rId19" display="https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2020" xr:uid="{BF90DEE2-F8E5-324E-B3B0-BD6E3E91CE13}"/>
-    <hyperlink ref="E275" r:id="rId20" display="https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2020" xr:uid="{33314441-5376-2743-A68F-9BBBFDF0C9C0}"/>
-    <hyperlink ref="E249:E274" r:id="rId21" display="https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2020" xr:uid="{A5DC4BFC-65A6-8A40-B678-A22248AD68F9}"/>
-    <hyperlink ref="E248" r:id="rId22" xr:uid="{22C7D8E4-E961-4D4F-969F-B3C501657997}"/>
-    <hyperlink ref="E231:E247" r:id="rId23" display="https://www.ons.gov.uk/economy/grossdomesticproductgdp/datasets/regionalgrossdomesticproductlocalauthorities" xr:uid="{DEE6FD6E-E775-1F42-9190-77C861E0B712}"/>
-    <hyperlink ref="E211:E230" r:id="rId24" display="https://www.ons.gov.uk/economy/grossdomesticproductgdp/datasets/regionalgrossdomesticproductlocalauthorities" xr:uid="{7D3802AE-7AF8-E64E-B578-0F98FF76EA0F}"/>
-    <hyperlink ref="E210" r:id="rId25" xr:uid="{14306401-3B6A-2546-9FD2-7D4ED5742037}"/>
-    <hyperlink ref="E203:E209" r:id="rId26" display="http://geogale.github.io/2011OAC/" xr:uid="{380D695D-64D6-A74D-AC32-D9CFB617C839}"/>
-    <hyperlink ref="E202" r:id="rId27" xr:uid="{6311768B-0149-1A42-9A68-154F4F14C77C}"/>
-    <hyperlink ref="E151:E176" r:id="rId28" display="https://www.nomisweb.co.uk/" xr:uid="{7AA4D184-FA9D-984D-9AF2-9953FFA83D05}"/>
-    <hyperlink ref="E5" r:id="rId29" xr:uid="{82511409-FD24-2746-B89A-159620C8D54F}"/>
-    <hyperlink ref="E6:E149" r:id="rId30" display="https://www.nomisweb.co.uk/" xr:uid="{1D1DD8EA-ADAA-0A45-AFC4-3ABF691FA2B8}"/>
-    <hyperlink ref="E189" r:id="rId31" xr:uid="{C13D9E79-ABF7-E147-A43E-8A7B83B3A0CB}"/>
-    <hyperlink ref="E190" r:id="rId32" xr:uid="{0E3FA19B-C84B-DA41-8D59-D4E88D60ECBF}"/>
-    <hyperlink ref="E192" r:id="rId33" xr:uid="{9429C129-5E0B-7C49-B870-9F9C119692C0}"/>
-    <hyperlink ref="E194" r:id="rId34" xr:uid="{1C7E4B61-E0FE-4747-8EA3-80EBC511B917}"/>
-    <hyperlink ref="E196" r:id="rId35" xr:uid="{2D10F7C4-F193-824A-B38D-934510CF97E5}"/>
-    <hyperlink ref="E191" r:id="rId36" xr:uid="{C8958090-A15E-9E43-937D-92927D31A3A1}"/>
-    <hyperlink ref="E193" r:id="rId37" xr:uid="{84EC8226-BDB1-9043-B23B-A395ADFDC095}"/>
-    <hyperlink ref="E195" r:id="rId38" xr:uid="{6717C52C-7515-5E45-90D6-684C36DF83B8}"/>
-    <hyperlink ref="E197" r:id="rId39" xr:uid="{02BC804B-A3D8-9B45-BA14-5F13706ECC50}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{2CDF7BFE-9203-0B49-A6D0-A9064FAA02F9}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{C271F86A-FBD6-724C-9532-7ECFDB390928}"/>
+    <hyperlink ref="E151" r:id="rId3" xr:uid="{0223BD99-FA5D-A041-8A49-4983C1D48592}"/>
+    <hyperlink ref="E186:E188" r:id="rId4" display="https://www.nomisweb.co.uk/" xr:uid="{A6D2E959-47A8-4343-AA32-78C75B6E826A}"/>
+    <hyperlink ref="E185" r:id="rId5" xr:uid="{CD9BDD53-6DAA-B642-B9D6-65D7C60C8A23}"/>
+    <hyperlink ref="E200:E202" r:id="rId6" display="https://www.nomisweb.co.uk/" xr:uid="{1B6F954F-18D5-F149-A688-B6CB73D44181}"/>
+    <hyperlink ref="E199" r:id="rId7" xr:uid="{FAF28140-0A08-F248-A92C-84B3C31296FC}"/>
+    <hyperlink ref="E189" r:id="rId8" xr:uid="{A031FD0F-13F5-CA4D-9596-F5CFC855B1D5}"/>
+    <hyperlink ref="E179:E184" r:id="rId9" display="https://www.gov.uk/government/collections/dwp-statistical-summaries" xr:uid="{138C5C7D-4902-E943-8E71-C3CEB87632CB}"/>
+    <hyperlink ref="E178" r:id="rId10" xr:uid="{5A734FB7-380D-3D44-9E40-9A2B6B78C051}"/>
+    <hyperlink ref="E315:E331" r:id="rId11" location="page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-0" display="https://fingertips.phe.org.uk/profile/health-profiles/data#page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-0" xr:uid="{96E92626-E7AE-0046-9B3A-33AA779B36E5}"/>
+    <hyperlink ref="E314" r:id="rId12" location="page/0/gid/1938132696/pat/6/par/E12000003/ati/101/are/E08000016/cid/4/tbm/1/page-options/ovw-do-0" xr:uid="{EE17F2FE-5E2E-3D48-88FB-6FAF4E61D09F}"/>
+    <hyperlink ref="E333:E354" r:id="rId13" display="https://www.ons.gov.uk/businessindustryandtrade/business/activitysizeandlocation/bulletins/ukbusinessactivitysizeandlocation/2019" xr:uid="{080218BA-08BE-EC4D-93CF-048AD282C204}"/>
+    <hyperlink ref="E332" r:id="rId14" xr:uid="{67ABA5A7-0401-AE45-9F72-CD3F5E7BA571}"/>
+    <hyperlink ref="E306:E313" r:id="rId15" display="https://www.gov.uk/government/statistics/individual-insolvencies-by-location-age-and-gender-england-and-wales-2018" xr:uid="{2D38F138-802E-3045-97F4-7E4C2EC16294}"/>
+    <hyperlink ref="E305" r:id="rId16" xr:uid="{74C7D6B1-AC1A-4A44-8472-39C7D7B1E11A}"/>
+    <hyperlink ref="E292:E304" r:id="rId17" display="https://www.ons.gov.uk/peoplepopulationandcommunity/personalandhouseholdfinances/expenditure/bulletins/familyspendingintheuk/financialyearending2018" xr:uid="{3F658B98-5DE3-8241-9154-AF6C4FB955E4}"/>
+    <hyperlink ref="E291" r:id="rId18" xr:uid="{4C449F19-A440-9E41-A475-7E467C6A0BF6}"/>
+    <hyperlink ref="E277:E290" r:id="rId19" display="https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2020" xr:uid="{BF90DEE2-F8E5-324E-B3B0-BD6E3E91CE13}"/>
+    <hyperlink ref="E276" r:id="rId20" display="https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2020" xr:uid="{33314441-5376-2743-A68F-9BBBFDF0C9C0}"/>
+    <hyperlink ref="E250:E275" r:id="rId21" display="https://www.gov.uk/government/statistical-data-sets/uk-house-price-index-data-downloads-february-2020" xr:uid="{A5DC4BFC-65A6-8A40-B678-A22248AD68F9}"/>
+    <hyperlink ref="E249" r:id="rId22" xr:uid="{22C7D8E4-E961-4D4F-969F-B3C501657997}"/>
+    <hyperlink ref="E232:E248" r:id="rId23" display="https://www.ons.gov.uk/economy/grossdomesticproductgdp/datasets/regionalgrossdomesticproductlocalauthorities" xr:uid="{DEE6FD6E-E775-1F42-9190-77C861E0B712}"/>
+    <hyperlink ref="E212:E231" r:id="rId24" display="https://www.ons.gov.uk/economy/grossdomesticproductgdp/datasets/regionalgrossdomesticproductlocalauthorities" xr:uid="{7D3802AE-7AF8-E64E-B578-0F98FF76EA0F}"/>
+    <hyperlink ref="E211" r:id="rId25" xr:uid="{14306401-3B6A-2546-9FD2-7D4ED5742037}"/>
+    <hyperlink ref="E204:E210" r:id="rId26" display="http://geogale.github.io/2011OAC/" xr:uid="{380D695D-64D6-A74D-AC32-D9CFB617C839}"/>
+    <hyperlink ref="E203" r:id="rId27" xr:uid="{6311768B-0149-1A42-9A68-154F4F14C77C}"/>
+    <hyperlink ref="E152:E177" r:id="rId28" display="https://www.nomisweb.co.uk/" xr:uid="{7AA4D184-FA9D-984D-9AF2-9953FFA83D05}"/>
+    <hyperlink ref="E6" r:id="rId29" xr:uid="{82511409-FD24-2746-B89A-159620C8D54F}"/>
+    <hyperlink ref="E7:E150" r:id="rId30" display="https://www.nomisweb.co.uk/" xr:uid="{1D1DD8EA-ADAA-0A45-AFC4-3ABF691FA2B8}"/>
+    <hyperlink ref="E190" r:id="rId31" xr:uid="{C13D9E79-ABF7-E147-A43E-8A7B83B3A0CB}"/>
+    <hyperlink ref="E191" r:id="rId32" xr:uid="{0E3FA19B-C84B-DA41-8D59-D4E88D60ECBF}"/>
+    <hyperlink ref="E193" r:id="rId33" xr:uid="{9429C129-5E0B-7C49-B870-9F9C119692C0}"/>
+    <hyperlink ref="E195" r:id="rId34" xr:uid="{1C7E4B61-E0FE-4747-8EA3-80EBC511B917}"/>
+    <hyperlink ref="E197" r:id="rId35" xr:uid="{2D10F7C4-F193-824A-B38D-934510CF97E5}"/>
+    <hyperlink ref="E192" r:id="rId36" xr:uid="{C8958090-A15E-9E43-937D-92927D31A3A1}"/>
+    <hyperlink ref="E194" r:id="rId37" xr:uid="{84EC8226-BDB1-9043-B23B-A395ADFDC095}"/>
+    <hyperlink ref="E196" r:id="rId38" xr:uid="{6717C52C-7515-5E45-90D6-684C36DF83B8}"/>
+    <hyperlink ref="E198" r:id="rId39" xr:uid="{02BC804B-A3D8-9B45-BA14-5F13706ECC50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
